--- a/Data/Multifamily.xlsx
+++ b/Data/Multifamily.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\JTodd\Austin Rigby Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taohe/Documents/GitHub/SLC-Housing-Dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26480" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Multi-Family Listings" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Multi-Family Listings'!$D$1:$D$219</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Multi-Family Listings'!$A$1:$K$219</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Multi-Family Listings'!$A$1:$M$219</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="616">
   <si>
     <t>Project Name</t>
   </si>
@@ -1868,6 +1874,15 @@
   </si>
   <si>
     <t>VOA Young Men's Transitional</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Market Units</t>
+  </si>
+  <si>
+    <t>Mixed Units</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1893,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,38 +1991,38 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2015,42 +2030,42 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2059,7 +2074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,6 +2323,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2591,29 +2609,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N219"/>
+  <dimension ref="A1:P220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220:XFD241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K221" sqref="K221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="20" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="20" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" style="20" customWidth="1"/>
     <col min="6" max="6" width="13" style="20" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="35" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" style="20" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="18.140625" style="20"/>
+    <col min="7" max="7" width="14.83203125" style="35" customWidth="1"/>
+    <col min="8" max="11" width="12.1640625" style="20" customWidth="1"/>
+    <col min="12" max="13" width="12.1640625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="18.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="34.5" thickBot="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2642,19 +2660,25 @@
         <v>6</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="O1" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>602</v>
       </c>
@@ -2674,19 +2698,21 @@
         <v>127</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>IF(H2-I2=H2,"Market",IF(H2-I2&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" ref="G2:G65" si="0">IF(H2-I2=H2,"Market",IF(H2-I2&gt;0,"Mixed","Affordable"))</f>
         <v>Market</v>
       </c>
       <c r="H2" s="11">
         <v>22</v>
       </c>
       <c r="I2" s="9"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>413</v>
       </c>
@@ -2706,7 +2732,7 @@
         <v>127</v>
       </c>
       <c r="G3" s="24" t="str">
-        <f>IF(H3-I3=H3,"Market",IF(H3-I3&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H3" s="11">
@@ -2715,12 +2741,14 @@
       <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>121</v>
       </c>
@@ -2738,19 +2766,21 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>IF(H4-I4=H4,"Market",IF(H4-I4&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H4" s="5">
         <v>210</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>341</v>
       </c>
@@ -2770,7 +2800,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>IF(H5-I5=H5,"Market",IF(H5-I5&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H5" s="11">
@@ -2779,12 +2809,14 @@
       <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>102</v>
       </c>
@@ -2804,7 +2836,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="24" t="str">
-        <f>IF(H6-I6=H6,"Market",IF(H6-I6&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H6" s="11">
@@ -2813,12 +2845,14 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -2838,7 +2872,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>IF(H7-I7=H7,"Market",IF(H7-I7&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H7" s="5">
@@ -2847,12 +2881,14 @@
       <c r="I7" s="2">
         <v>270</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>566</v>
       </c>
@@ -2872,7 +2908,7 @@
         <v>127</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IF(H8-I8=H8,"Market",IF(H8-I8&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H8" s="5">
@@ -2881,14 +2917,16 @@
       <c r="I8" s="16">
         <v>274</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="15">
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="15">
         <v>200000</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="N8" s="29"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>604</v>
       </c>
@@ -2908,7 +2946,7 @@
         <v>127</v>
       </c>
       <c r="G9" s="24" t="str">
-        <f>IF(H9-I9=H9,"Market",IF(H9-I9&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H9" s="11">
@@ -2917,12 +2955,14 @@
       <c r="I9" s="9">
         <v>17</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>502</v>
       </c>
@@ -2940,7 +2980,7 @@
         <v>127</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF(H10-I10=H10,"Market",IF(H10-I10&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H10" s="5">
@@ -2949,12 +2989,14 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2974,19 +3016,21 @@
         <v>14</v>
       </c>
       <c r="G11" s="24" t="str">
-        <f>IF(H11-I11=H11,"Market",IF(H11-I11&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H11" s="5">
         <v>39</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -3004,19 +3048,21 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>IF(H12-I12=H12,"Market",IF(H12-I12&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H12" s="11">
         <v>28</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>71</v>
       </c>
@@ -3036,7 +3082,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="24" t="str">
-        <f>IF(H13-I13=H13,"Market",IF(H13-I13&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Mixed</v>
       </c>
       <c r="H13" s="22">
@@ -3045,12 +3091,14 @@
       <c r="I13" s="21">
         <v>54</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -3068,19 +3116,21 @@
         <v>14</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>IF(H14-I14=H14,"Market",IF(H14-I14&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H14" s="5">
         <v>85</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>338</v>
       </c>
@@ -3100,19 +3150,21 @@
         <v>127</v>
       </c>
       <c r="G15" s="24" t="str">
-        <f>IF(H15-I15=H15,"Market",IF(H15-I15&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H15" s="11">
         <v>56</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -3132,21 +3184,23 @@
         <v>14</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>IF(H16-I16=H16,"Market",IF(H16-I16&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H16" s="5">
         <v>23</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="3">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="3">
         <v>100000</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -3166,20 +3220,22 @@
         <v>14</v>
       </c>
       <c r="G17" s="24" t="str">
-        <f>IF(H17-I17=H17,"Market",IF(H17-I17&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H17" s="5">
         <v>264</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="7"/>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="7"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>452</v>
       </c>
@@ -3199,19 +3255,21 @@
         <v>127</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>IF(H18-I18=H18,"Market",IF(H18-I18&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H18" s="11">
         <v>62</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>300</v>
       </c>
@@ -3231,19 +3289,21 @@
         <v>127</v>
       </c>
       <c r="G19" s="24" t="str">
-        <f>IF(H19-I19=H19,"Market",IF(H19-I19&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H19" s="11">
         <v>18</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="29"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="N19" s="29"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>557</v>
       </c>
@@ -3263,17 +3323,19 @@
         <v>127</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>IF(H20-I20=H20,"Market",IF(H20-I20&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>402</v>
       </c>
@@ -3293,19 +3355,21 @@
         <v>127</v>
       </c>
       <c r="G21" s="24" t="str">
-        <f>IF(H21-I21=H21,"Market",IF(H21-I21&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H21" s="11">
         <v>53</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>407</v>
       </c>
@@ -3323,7 +3387,7 @@
         <v>127</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>IF(H22-I22=H22,"Market",IF(H22-I22&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H22" s="5">
@@ -3332,12 +3396,14 @@
       <c r="I22" s="2">
         <v>27</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>162</v>
       </c>
@@ -3357,19 +3423,21 @@
         <v>127</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>IF(H23-I23=H23,"Market",IF(H23-I23&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H23" s="11">
         <v>16</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>188</v>
       </c>
@@ -3389,7 +3457,7 @@
         <v>127</v>
       </c>
       <c r="G24" s="24" t="str">
-        <f>IF(H24-I24=H24,"Market",IF(H24-I24&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H24" s="5">
@@ -3398,12 +3466,14 @@
       <c r="I24" s="2">
         <v>62</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>166</v>
       </c>
@@ -3423,7 +3493,7 @@
         <v>127</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>IF(H25-I25=H25,"Market",IF(H25-I25&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H25" s="9">
@@ -3432,13 +3502,15 @@
       <c r="I25" s="9">
         <v>68</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="17"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="17"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>292</v>
       </c>
@@ -3458,7 +3530,7 @@
         <v>127</v>
       </c>
       <c r="G26" s="24" t="str">
-        <f>IF(H26-I26=H26,"Market",IF(H26-I26&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H26" s="53">
@@ -3467,14 +3539,16 @@
       <c r="I26" s="9">
         <v>45</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="15">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="15">
         <v>500000</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="N26" s="29"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -3494,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IF(H27-I27=H27,"Market",IF(H27-I27&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Mixed</v>
       </c>
       <c r="H27" s="5">
@@ -3503,12 +3577,14 @@
       <c r="I27" s="2">
         <v>60</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>84</v>
       </c>
@@ -3528,7 +3604,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="24" t="str">
-        <f>IF(H28-I28=H28,"Market",IF(H28-I28&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H28" s="5">
@@ -3537,12 +3613,14 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>119</v>
       </c>
@@ -3558,17 +3636,19 @@
         <v>14</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>IF(H29-I29=H29,"Market",IF(H29-I29&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>245</v>
       </c>
@@ -3588,19 +3668,21 @@
         <v>127</v>
       </c>
       <c r="G30" s="24" t="str">
-        <f>IF(H30-I30=H30,"Market",IF(H30-I30&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H30" s="53">
         <v>112</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="17"/>
+    </row>
+    <row r="31" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>424</v>
       </c>
@@ -3620,18 +3702,20 @@
         <v>127</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>IF(H31-I31=H31,"Market",IF(H31-I31&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="17"/>
-      <c r="N31"/>
-    </row>
-    <row r="32" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="17"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>404</v>
       </c>
@@ -3651,17 +3735,19 @@
         <v>127</v>
       </c>
       <c r="G32" s="24" t="str">
-        <f>IF(H32-I32=H32,"Market",IF(H32-I32&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>475</v>
       </c>
@@ -3681,17 +3767,19 @@
         <v>127</v>
       </c>
       <c r="G33" s="24" t="str">
-        <f>IF(H33-I33=H33,"Market",IF(H33-I33&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="1:16" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>87</v>
       </c>
@@ -3711,19 +3799,21 @@
         <v>14</v>
       </c>
       <c r="G34" s="24" t="str">
-        <f>IF(H34-I34=H34,"Market",IF(H34-I34&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H34" s="5">
         <v>97</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>443</v>
       </c>
@@ -3743,19 +3833,21 @@
         <v>127</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>IF(H35-I35=H35,"Market",IF(H35-I35&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="15">
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="15">
         <v>750000</v>
       </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="N35" s="29"/>
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="1:16" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>454</v>
       </c>
@@ -3775,19 +3867,21 @@
         <v>127</v>
       </c>
       <c r="G36" s="24" t="str">
-        <f>IF(H36-I36=H36,"Market",IF(H36-I36&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H36" s="11">
         <v>30</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="17"/>
+    </row>
+    <row r="37" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>232</v>
       </c>
@@ -3807,7 +3901,7 @@
         <v>127</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f>IF(H37-I37=H37,"Market",IF(H37-I37&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H37" s="11">
@@ -3816,12 +3910,14 @@
       <c r="I37" s="9">
         <v>70</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="17"/>
+    </row>
+    <row r="38" spans="1:16" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>253</v>
       </c>
@@ -3841,7 +3937,7 @@
         <v>127</v>
       </c>
       <c r="G38" s="24" t="str">
-        <f>IF(H38-I38=H38,"Market",IF(H38-I38&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H38" s="53">
@@ -3850,12 +3946,14 @@
       <c r="I38" s="9">
         <v>78</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>310</v>
       </c>
@@ -3875,7 +3973,7 @@
         <v>127</v>
       </c>
       <c r="G39" s="24" t="str">
-        <f>IF(H39-I39=H39,"Market",IF(H39-I39&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H39" s="11">
@@ -3884,12 +3982,14 @@
       <c r="I39" s="9">
         <v>108</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>336</v>
       </c>
@@ -3909,17 +4009,19 @@
         <v>127</v>
       </c>
       <c r="G40" s="24" t="str">
-        <f>IF(H40-I40=H40,"Market",IF(H40-I40&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:16" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>263</v>
       </c>
@@ -3939,19 +4041,21 @@
         <v>127</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f>IF(H41-I41=H41,"Market",IF(H41-I41&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H41" s="11">
         <v>12</v>
       </c>
       <c r="I41" s="9"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="17"/>
+    </row>
+    <row r="42" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>606</v>
       </c>
@@ -3971,20 +4075,22 @@
         <v>127</v>
       </c>
       <c r="G42" s="24" t="str">
-        <f>IF(H42-I42=H42,"Market",IF(H42-I42&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H42" s="9">
         <v>17</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="17"/>
-      <c r="N42"/>
-    </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="17"/>
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -4004,22 +4110,24 @@
         <v>14</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f>IF(H43-I43=H43,"Market",IF(H43-I43&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H43" s="2">
         <v>97</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3">
         <v>750000</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="7"/>
-      <c r="N43"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1">
+      <c r="N43" s="3"/>
+      <c r="O43" s="7"/>
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>496</v>
       </c>
@@ -4039,7 +4147,7 @@
         <v>127</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>IF(H44-I44=H44,"Market",IF(H44-I44&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Mixed</v>
       </c>
       <c r="H44" s="2">
@@ -4048,12 +4156,14 @@
       <c r="I44" s="2">
         <v>87</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>490</v>
       </c>
@@ -4073,7 +4183,7 @@
         <v>127</v>
       </c>
       <c r="G45" s="24" t="str">
-        <f>IF(H45-I45=H45,"Market",IF(H45-I45&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Mixed</v>
       </c>
       <c r="H45" s="24">
@@ -4082,12 +4192,14 @@
       <c r="I45" s="9">
         <v>94</v>
       </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>548</v>
       </c>
@@ -4107,19 +4219,21 @@
         <v>127</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>IF(H46-I46=H46,"Market",IF(H46-I46&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15">
         <v>152000</v>
       </c>
-      <c r="L46" s="29"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1">
+      <c r="N46" s="29"/>
+      <c r="O46" s="17"/>
+    </row>
+    <row r="47" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>268</v>
       </c>
@@ -4139,19 +4253,21 @@
         <v>127</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>IF(H47-I47=H47,"Market",IF(H47-I47&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H47" s="9">
         <v>150</v>
       </c>
       <c r="I47" s="9"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="17"/>
+    </row>
+    <row r="48" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>525</v>
       </c>
@@ -4171,19 +4287,21 @@
         <v>127</v>
       </c>
       <c r="G48" s="24" t="str">
-        <f>IF(H48-I48=H48,"Market",IF(H48-I48&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H48" s="9">
         <v>27</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="17"/>
+    </row>
+    <row r="49" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>29</v>
       </c>
@@ -4203,7 +4321,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>IF(H49-I49=H49,"Market",IF(H49-I49&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Mixed</v>
       </c>
       <c r="H49" s="2">
@@ -4212,12 +4330,14 @@
       <c r="I49" s="2">
         <v>131</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>379</v>
       </c>
@@ -4237,19 +4357,21 @@
         <v>127</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>IF(H50-I50=H50,"Market",IF(H50-I50&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H50" s="2">
         <v>17</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>265</v>
       </c>
@@ -4269,19 +4391,21 @@
         <v>127</v>
       </c>
       <c r="G51" s="24" t="str">
-        <f>IF(H51-I51=H51,"Market",IF(H51-I51&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H51" s="9">
         <v>149</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="29"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="17"/>
       <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N51" s="29"/>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>605</v>
       </c>
@@ -4301,7 +4425,7 @@
         <v>127</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f>IF(H52-I52=H52,"Market",IF(H52-I52&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H52" s="9">
@@ -4310,12 +4434,14 @@
       <c r="I52" s="9">
         <v>21</v>
       </c>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="17"/>
+    </row>
+    <row r="53" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>411</v>
       </c>
@@ -4335,7 +4461,7 @@
         <v>127</v>
       </c>
       <c r="G53" s="24" t="str">
-        <f>IF(H53-I53=H53,"Market",IF(H53-I53&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H53" s="9">
@@ -4344,12 +4470,14 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>172</v>
       </c>
@@ -4369,17 +4497,19 @@
         <v>127</v>
       </c>
       <c r="G54" s="24" t="str">
-        <f>IF(H54-I54=H54,"Market",IF(H54-I54&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>399</v>
       </c>
@@ -4399,19 +4529,21 @@
         <v>127</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f>IF(H55-I55=H55,"Market",IF(H55-I55&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H55" s="9">
         <v>174</v>
       </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>175</v>
       </c>
@@ -4431,19 +4563,21 @@
         <v>127</v>
       </c>
       <c r="G56" s="24" t="str">
-        <f>IF(H56-I56=H56,"Market",IF(H56-I56&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H56" s="9">
         <v>95</v>
       </c>
       <c r="I56" s="9"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="17"/>
+    </row>
+    <row r="57" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>198</v>
       </c>
@@ -4463,7 +4597,7 @@
         <v>127</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f>IF(H57-I57=H57,"Market",IF(H57-I57&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H57" s="2">
@@ -4472,12 +4606,14 @@
       <c r="I57" s="2">
         <v>210</v>
       </c>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="17"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>447</v>
       </c>
@@ -4497,19 +4633,21 @@
         <v>127</v>
       </c>
       <c r="G58" s="24" t="str">
-        <f>IF(H58-I58=H58,"Market",IF(H58-I58&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H58" s="2">
         <v>189</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="17"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>223</v>
       </c>
@@ -4529,19 +4667,21 @@
         <v>127</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f>IF(H59-I59=H59,"Market",IF(H59-I59&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H59" s="9">
         <v>32</v>
       </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="17"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>227</v>
       </c>
@@ -4561,21 +4701,23 @@
         <v>127</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f>IF(H60-I60=H60,"Market",IF(H60-I60&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H60" s="9">
         <v>20</v>
       </c>
       <c r="I60" s="9"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34">
         <v>300000</v>
       </c>
-      <c r="L60" s="29"/>
-      <c r="M60" s="17"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N60" s="29"/>
+      <c r="O60" s="17"/>
+    </row>
+    <row r="61" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>131</v>
       </c>
@@ -4595,7 +4737,7 @@
         <v>127</v>
       </c>
       <c r="G61" s="24" t="str">
-        <f>IF(H61-I61=H61,"Market",IF(H61-I61&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H61" s="9">
@@ -4604,12 +4746,14 @@
       <c r="I61" s="9">
         <v>100</v>
       </c>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="17"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
@@ -4629,7 +4773,7 @@
         <v>14</v>
       </c>
       <c r="G62" s="24" t="str">
-        <f>IF(H62-I62=H62,"Market",IF(H62-I62&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H62" s="2">
@@ -4638,14 +4782,16 @@
       <c r="I62" s="2">
         <v>0</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3">
         <v>1525000</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="7"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N62" s="3"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>128</v>
       </c>
@@ -4665,7 +4811,7 @@
         <v>127</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f>IF(H63-I63=H63,"Market",IF(H63-I63&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H63" s="9">
@@ -4674,12 +4820,14 @@
       <c r="I63" s="9">
         <v>35</v>
       </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="17"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="17"/>
+    </row>
+    <row r="64" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>416</v>
       </c>
@@ -4699,7 +4847,7 @@
         <v>127</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f>IF(H64-I64=H64,"Market",IF(H64-I64&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H64" s="9">
@@ -4708,12 +4856,14 @@
       <c r="I64" s="9">
         <v>61</v>
       </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="17"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="17"/>
+    </row>
+    <row r="65" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>432</v>
       </c>
@@ -4733,7 +4883,7 @@
         <v>127</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f>IF(H65-I65=H65,"Market",IF(H65-I65&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H65" s="9">
@@ -4742,12 +4892,14 @@
       <c r="I65" s="16">
         <v>50</v>
       </c>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="17"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>295</v>
       </c>
@@ -4767,19 +4919,21 @@
         <v>127</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f>IF(H66-I66=H66,"Market",IF(H66-I66&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" ref="G66:G129" si="1">IF(H66-I66=H66,"Market",IF(H66-I66&gt;0,"Mixed","Affordable"))</f>
         <v>Market</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15">
         <v>720000</v>
       </c>
-      <c r="L66" s="29"/>
-      <c r="M66" s="17"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N66" s="29"/>
+      <c r="O66" s="17"/>
+    </row>
+    <row r="67" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>261</v>
       </c>
@@ -4799,7 +4953,7 @@
         <v>127</v>
       </c>
       <c r="G67" s="24" t="str">
-        <f>IF(H67-I67=H67,"Market",IF(H67-I67&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H67" s="9">
@@ -4808,14 +4962,16 @@
       <c r="I67" s="9">
         <v>110</v>
       </c>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15">
         <v>750000</v>
       </c>
-      <c r="L67" s="29"/>
-      <c r="M67" s="17"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N67" s="29"/>
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>169</v>
       </c>
@@ -4835,19 +4991,21 @@
         <v>127</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f>IF(H68-I68=H68,"Market",IF(H68-I68&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H68" s="9">
         <v>178</v>
       </c>
       <c r="I68" s="9"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="17"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="17"/>
+    </row>
+    <row r="69" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>145</v>
       </c>
@@ -4867,17 +5025,19 @@
         <v>127</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f>IF(H69-I69=H69,"Market",IF(H69-I69&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="17"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="17"/>
+    </row>
+    <row r="70" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>164</v>
       </c>
@@ -4897,7 +5057,7 @@
         <v>127</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f>IF(H70-I70=H70,"Market",IF(H70-I70&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H70" s="9">
@@ -4906,12 +5066,14 @@
       <c r="I70" s="9">
         <v>41</v>
       </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="17"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="17"/>
+    </row>
+    <row r="71" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>270</v>
       </c>
@@ -4931,17 +5093,19 @@
         <v>127</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f>IF(H71-I71=H71,"Market",IF(H71-I71&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="17"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="17"/>
+    </row>
+    <row r="72" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
@@ -4961,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f>IF(H72-I72=H72,"Market",IF(H72-I72&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H72" s="2">
@@ -4970,12 +5134,14 @@
       <c r="I72" s="2">
         <v>134</v>
       </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="7"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>512</v>
       </c>
@@ -4995,17 +5161,19 @@
         <v>127</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f>IF(H73-I73=H73,"Market",IF(H73-I73&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="17"/>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="17"/>
+    </row>
+    <row r="74" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>603</v>
       </c>
@@ -5025,7 +5193,7 @@
         <v>127</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f>IF(H74-I74=H74,"Market",IF(H74-I74&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H74" s="9">
@@ -5034,12 +5202,14 @@
       <c r="I74" s="9">
         <v>25</v>
       </c>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="17"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="17"/>
+    </row>
+    <row r="75" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>541</v>
       </c>
@@ -5059,19 +5229,21 @@
         <v>127</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f>IF(H75-I75=H75,"Market",IF(H75-I75&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H75" s="9">
         <v>64</v>
       </c>
       <c r="I75" s="9"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="17"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="17"/>
+    </row>
+    <row r="76" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>35</v>
       </c>
@@ -5091,21 +5263,23 @@
         <v>14</v>
       </c>
       <c r="G76" s="24" t="str">
-        <f>IF(H76-I76=H76,"Market",IF(H76-I76&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H76" s="9">
         <v>77</v>
       </c>
       <c r="I76" s="9"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3">
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3">
         <v>1200000</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76" s="7"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N76" s="3"/>
+      <c r="O76" s="7"/>
+    </row>
+    <row r="77" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>439</v>
       </c>
@@ -5125,7 +5299,7 @@
         <v>127</v>
       </c>
       <c r="G77" s="24" t="str">
-        <f>IF(H77-I77=H77,"Market",IF(H77-I77&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H77" s="9">
@@ -5134,12 +5308,14 @@
       <c r="I77" s="9">
         <v>0</v>
       </c>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="17"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="17"/>
+    </row>
+    <row r="78" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>559</v>
       </c>
@@ -5159,19 +5335,21 @@
         <v>127</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f>IF(H78-I78=H78,"Market",IF(H78-I78&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H78" s="9">
         <v>21</v>
       </c>
       <c r="I78" s="9"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="17"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="17"/>
+    </row>
+    <row r="79" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>530</v>
       </c>
@@ -5191,21 +5369,23 @@
         <v>127</v>
       </c>
       <c r="G79" s="24" t="str">
-        <f>IF(H79-I79=H79,"Market",IF(H79-I79&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H79" s="9">
         <v>88</v>
       </c>
       <c r="I79" s="9"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15">
         <v>300000</v>
       </c>
-      <c r="L79" s="29"/>
-      <c r="M79" s="17"/>
-    </row>
-    <row r="80" spans="1:13" ht="23.25" thickBot="1">
+      <c r="N79" s="29"/>
+      <c r="O79" s="17"/>
+    </row>
+    <row r="80" spans="1:15" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
         <v>140</v>
       </c>
@@ -5225,17 +5405,19 @@
         <v>127</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f>IF(H80-I80=H80,"Market",IF(H80-I80&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="17"/>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="17"/>
+    </row>
+    <row r="81" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>136</v>
       </c>
@@ -5255,19 +5437,21 @@
         <v>127</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f>IF(H81-I81=H81,"Market",IF(H81-I81&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H81" s="9">
         <v>24</v>
       </c>
       <c r="I81" s="9"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="17"/>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="17"/>
+    </row>
+    <row r="82" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>353</v>
       </c>
@@ -5287,19 +5471,21 @@
         <v>127</v>
       </c>
       <c r="G82" s="24" t="str">
-        <f>IF(H82-I82=H82,"Market",IF(H82-I82&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H82" s="9">
         <v>80</v>
       </c>
       <c r="I82" s="9"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="17"/>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="17"/>
+    </row>
+    <row r="83" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>362</v>
       </c>
@@ -5319,19 +5505,21 @@
         <v>127</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f>IF(H83-I83=H83,"Market",IF(H83-I83&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H83" s="9">
         <v>12</v>
       </c>
       <c r="I83" s="9"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="17"/>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="17"/>
+    </row>
+    <row r="84" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>344</v>
       </c>
@@ -5351,19 +5539,21 @@
         <v>127</v>
       </c>
       <c r="G84" s="24" t="str">
-        <f>IF(H84-I84=H84,"Market",IF(H84-I84&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H84" s="2">
         <v>51</v>
       </c>
       <c r="I84" s="2"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="17"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="17"/>
+    </row>
+    <row r="85" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>241</v>
       </c>
@@ -5383,7 +5573,7 @@
         <v>127</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f>IF(H85-I85=H85,"Market",IF(H85-I85&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H85" s="9">
@@ -5392,14 +5582,16 @@
       <c r="I85" s="9">
         <v>20</v>
       </c>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15">
         <v>200000</v>
       </c>
-      <c r="L85" s="29"/>
-      <c r="M85" s="17"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N85" s="29"/>
+      <c r="O85" s="17"/>
+    </row>
+    <row r="86" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>138</v>
       </c>
@@ -5419,7 +5611,7 @@
         <v>127</v>
       </c>
       <c r="G86" s="24" t="str">
-        <f>IF(H86-I86=H86,"Market",IF(H86-I86&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H86" s="9">
@@ -5428,12 +5620,14 @@
       <c r="I86" s="9">
         <v>46</v>
       </c>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="17"/>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="17"/>
+    </row>
+    <row r="87" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>124</v>
       </c>
@@ -5453,7 +5647,7 @@
         <v>127</v>
       </c>
       <c r="G87" s="24" t="str">
-        <f>IF(H87-I87=H87,"Market",IF(H87-I87&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H87" s="9">
@@ -5462,14 +5656,16 @@
       <c r="I87" s="9">
         <v>36</v>
       </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17">
         <v>695177</v>
       </c>
-      <c r="L87" s="29"/>
-      <c r="M87" s="17"/>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N87" s="29"/>
+      <c r="O87" s="17"/>
+    </row>
+    <row r="88" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>26</v>
       </c>
@@ -5489,7 +5685,7 @@
         <v>14</v>
       </c>
       <c r="G88" s="24" t="str">
-        <f>IF(H88-I88=H88,"Market",IF(H88-I88&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H88" s="9">
@@ -5498,12 +5694,14 @@
       <c r="I88" s="9">
         <v>43</v>
       </c>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="29"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="17"/>
       <c r="M88" s="17"/>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N88" s="29"/>
+      <c r="O88" s="17"/>
+    </row>
+    <row r="89" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>504</v>
       </c>
@@ -5523,17 +5721,19 @@
         <v>127</v>
       </c>
       <c r="G89" s="24" t="str">
-        <f>IF(H89-I89=H89,"Market",IF(H89-I89&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="29"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="17"/>
       <c r="M89" s="17"/>
-    </row>
-    <row r="90" spans="1:13" ht="23.25" thickBot="1">
+      <c r="N89" s="29"/>
+      <c r="O89" s="17"/>
+    </row>
+    <row r="90" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>376</v>
       </c>
@@ -5553,7 +5753,7 @@
         <v>127</v>
       </c>
       <c r="G90" s="24" t="str">
-        <f>IF(H90-I90=H90,"Market",IF(H90-I90&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H90" s="9">
@@ -5562,12 +5762,14 @@
       <c r="I90" s="9">
         <v>36</v>
       </c>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="29"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="17"/>
       <c r="M90" s="17"/>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N90" s="29"/>
+      <c r="O90" s="17"/>
+    </row>
+    <row r="91" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>243</v>
       </c>
@@ -5587,7 +5789,7 @@
         <v>127</v>
       </c>
       <c r="G91" s="24" t="str">
-        <f>IF(H91-I91=H91,"Market",IF(H91-I91&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H91" s="9">
@@ -5596,12 +5798,14 @@
       <c r="I91" s="9">
         <v>72</v>
       </c>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="17"/>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="17"/>
+    </row>
+    <row r="92" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>585</v>
       </c>
@@ -5621,19 +5825,21 @@
         <v>127</v>
       </c>
       <c r="G92" s="2" t="str">
-        <f>IF(H92-I92=H92,"Market",IF(H92-I92&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H92" s="9">
         <v>18</v>
       </c>
       <c r="I92" s="9"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="17"/>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="17"/>
+    </row>
+    <row r="93" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>460</v>
       </c>
@@ -5653,17 +5859,19 @@
         <v>127</v>
       </c>
       <c r="G93" s="24" t="str">
-        <f>IF(H93-I93=H93,"Market",IF(H93-I93&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="17"/>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="17"/>
+    </row>
+    <row r="94" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>178</v>
       </c>
@@ -5683,7 +5891,7 @@
         <v>127</v>
       </c>
       <c r="G94" s="2" t="str">
-        <f>IF(H94-I94=H94,"Market",IF(H94-I94&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H94" s="16">
@@ -5692,12 +5900,14 @@
       <c r="I94" s="16">
         <v>95</v>
       </c>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="17"/>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="17"/>
+    </row>
+    <row r="95" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>159</v>
       </c>
@@ -5717,7 +5927,7 @@
         <v>127</v>
       </c>
       <c r="G95" s="2" t="str">
-        <f>IF(H95-I95=H95,"Market",IF(H95-I95&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H95" s="9">
@@ -5726,12 +5936,14 @@
       <c r="I95" s="9">
         <v>0</v>
       </c>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="17"/>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="17"/>
+    </row>
+    <row r="96" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -5751,7 +5963,7 @@
         <v>14</v>
       </c>
       <c r="G96" s="24" t="str">
-        <f>IF(H96-I96=H96,"Market",IF(H96-I96&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H96" s="2">
@@ -5760,12 +5972,14 @@
       <c r="I96" s="2">
         <v>54</v>
       </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="7"/>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="7"/>
+    </row>
+    <row r="97" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
         <v>355</v>
       </c>
@@ -5785,7 +5999,7 @@
         <v>127</v>
       </c>
       <c r="G97" s="24" t="str">
-        <f>IF(H97-I97=H97,"Market",IF(H97-I97&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H97" s="9">
@@ -5794,12 +6008,14 @@
       <c r="I97" s="9">
         <v>73</v>
       </c>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="17"/>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="17"/>
+    </row>
+    <row r="98" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>97</v>
       </c>
@@ -5819,19 +6035,21 @@
         <v>14</v>
       </c>
       <c r="G98" s="2" t="str">
-        <f>IF(H98-I98=H98,"Market",IF(H98-I98&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H98" s="9">
         <v>177</v>
       </c>
       <c r="I98" s="9"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="7"/>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="7"/>
+    </row>
+    <row r="99" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>449</v>
       </c>
@@ -5851,7 +6069,7 @@
         <v>127</v>
       </c>
       <c r="G99" s="2" t="str">
-        <f>IF(H99-I99=H99,"Market",IF(H99-I99&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H99" s="2">
@@ -5860,12 +6078,14 @@
       <c r="I99" s="2">
         <v>0</v>
       </c>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="17"/>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="17"/>
+    </row>
+    <row r="100" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>473</v>
       </c>
@@ -5885,19 +6105,21 @@
         <v>127</v>
       </c>
       <c r="G100" s="24" t="str">
-        <f>IF(H100-I100=H100,"Market",IF(H100-I100&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H100" s="9">
         <v>100</v>
       </c>
       <c r="I100" s="9"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="17"/>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="17"/>
+    </row>
+    <row r="101" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>290</v>
       </c>
@@ -5917,19 +6139,21 @@
         <v>127</v>
       </c>
       <c r="G101" s="24" t="str">
-        <f>IF(H101-I101=H101,"Market",IF(H101-I101&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H101" s="9">
         <v>71</v>
       </c>
       <c r="I101" s="9"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="17"/>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="17"/>
+    </row>
+    <row r="102" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>284</v>
       </c>
@@ -5949,7 +6173,7 @@
         <v>127</v>
       </c>
       <c r="G102" s="24" t="str">
-        <f>IF(H102-I102=H102,"Market",IF(H102-I102&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H102" s="9">
@@ -5958,12 +6182,14 @@
       <c r="I102" s="9">
         <v>35</v>
       </c>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="17"/>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="17"/>
+    </row>
+    <row r="103" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>357</v>
       </c>
@@ -5983,7 +6209,7 @@
         <v>127</v>
       </c>
       <c r="G103" s="2" t="str">
-        <f>IF(H103-I103=H103,"Market",IF(H103-I103&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H103" s="2">
@@ -5992,12 +6218,14 @@
       <c r="I103" s="16">
         <v>51</v>
       </c>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="17"/>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="17"/>
+    </row>
+    <row r="104" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>319</v>
       </c>
@@ -6017,7 +6245,7 @@
         <v>127</v>
       </c>
       <c r="G104" s="2" t="str">
-        <f>IF(H104-I104=H104,"Market",IF(H104-I104&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H104" s="9">
@@ -6026,12 +6254,14 @@
       <c r="I104" s="9">
         <v>16</v>
       </c>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="17"/>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="17"/>
+    </row>
+    <row r="105" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>272</v>
       </c>
@@ -6051,19 +6281,21 @@
         <v>127</v>
       </c>
       <c r="G105" s="24" t="str">
-        <f>IF(H105-I105=H105,"Market",IF(H105-I105&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H105" s="9">
         <v>95</v>
       </c>
       <c r="I105" s="9"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="17"/>
-    </row>
-    <row r="106" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="17"/>
+    </row>
+    <row r="106" spans="1:15" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>396</v>
       </c>
@@ -6083,7 +6315,7 @@
         <v>127</v>
       </c>
       <c r="G106" s="2" t="str">
-        <f>IF(H106-I106=H106,"Market",IF(H106-I106&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H106" s="9">
@@ -6092,12 +6324,14 @@
       <c r="I106" s="9">
         <v>12</v>
       </c>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="17"/>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="17"/>
+    </row>
+    <row r="107" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>535</v>
       </c>
@@ -6117,17 +6351,19 @@
         <v>127</v>
       </c>
       <c r="G107" s="24" t="str">
-        <f>IF(H107-I107=H107,"Market",IF(H107-I107&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H107" s="24"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="17"/>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="17"/>
+    </row>
+    <row r="108" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>539</v>
       </c>
@@ -6147,7 +6383,7 @@
         <v>127</v>
       </c>
       <c r="G108" s="2" t="str">
-        <f>IF(H108-I108=H108,"Market",IF(H108-I108&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H108" s="9">
@@ -6156,12 +6392,14 @@
       <c r="I108" s="9">
         <v>80</v>
       </c>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="17"/>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="17"/>
+    </row>
+    <row r="109" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>322</v>
       </c>
@@ -6181,19 +6419,21 @@
         <v>127</v>
       </c>
       <c r="G109" s="24" t="str">
-        <f>IF(H109-I109=H109,"Market",IF(H109-I109&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H109" s="2">
         <v>13</v>
       </c>
       <c r="I109" s="2"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="17"/>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="17"/>
+    </row>
+    <row r="110" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>201</v>
       </c>
@@ -6213,17 +6453,19 @@
         <v>127</v>
       </c>
       <c r="G110" s="2" t="str">
-        <f>IF(H110-I110=H110,"Market",IF(H110-I110&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="17"/>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="17"/>
+    </row>
+    <row r="111" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>428</v>
       </c>
@@ -6243,21 +6485,23 @@
         <v>127</v>
       </c>
       <c r="G111" s="2" t="str">
-        <f>IF(H111-I111=H111,"Market",IF(H111-I111&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H111" s="9">
         <v>59</v>
       </c>
       <c r="I111" s="27"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17">
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17">
         <v>300000</v>
       </c>
-      <c r="L111" s="29"/>
-      <c r="M111" s="17"/>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N111" s="29"/>
+      <c r="O111" s="17"/>
+    </row>
+    <row r="112" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>39</v>
       </c>
@@ -6277,19 +6521,21 @@
         <v>14</v>
       </c>
       <c r="G112" s="2" t="str">
-        <f>IF(H112-I112=H112,"Market",IF(H112-I112&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H112" s="2">
         <v>265</v>
       </c>
       <c r="I112" s="2"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="42"/>
-      <c r="M112" s="7"/>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="7"/>
+    </row>
+    <row r="113" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="24" t="s">
         <v>315</v>
       </c>
@@ -6309,17 +6555,19 @@
         <v>127</v>
       </c>
       <c r="G113" s="24" t="str">
-        <f>IF(H113-I113=H113,"Market",IF(H113-I113&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="17"/>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="17"/>
+    </row>
+    <row r="114" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>465</v>
       </c>
@@ -6339,17 +6587,19 @@
         <v>127</v>
       </c>
       <c r="G114" s="2" t="str">
-        <f>IF(H114-I114=H114,"Market",IF(H114-I114&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="17"/>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="34"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="17"/>
+    </row>
+    <row r="115" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="24" t="s">
         <v>217</v>
       </c>
@@ -6369,19 +6619,21 @@
         <v>127</v>
       </c>
       <c r="G115" s="24" t="str">
-        <f>IF(H115-I115=H115,"Market",IF(H115-I115&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15">
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15">
         <v>700000</v>
       </c>
-      <c r="L115" s="29"/>
-      <c r="M115" s="17"/>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N115" s="29"/>
+      <c r="O115" s="17"/>
+    </row>
+    <row r="116" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>99</v>
       </c>
@@ -6401,19 +6653,21 @@
         <v>14</v>
       </c>
       <c r="G116" s="24" t="str">
-        <f>IF(H116-I116=H116,"Market",IF(H116-I116&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H116" s="2">
         <v>182</v>
       </c>
       <c r="I116" s="2"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="7"/>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="7"/>
+    </row>
+    <row r="117" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>371</v>
       </c>
@@ -6433,7 +6687,7 @@
         <v>127</v>
       </c>
       <c r="G117" s="24" t="str">
-        <f>IF(H117-I117=H117,"Market",IF(H117-I117&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H117" s="2">
@@ -6442,12 +6696,14 @@
       <c r="I117" s="2">
         <v>36</v>
       </c>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="42"/>
-      <c r="M117" s="7"/>
-    </row>
-    <row r="118" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="7"/>
+    </row>
+    <row r="118" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>384</v>
       </c>
@@ -6467,7 +6723,7 @@
         <v>127</v>
       </c>
       <c r="G118" s="2" t="str">
-        <f>IF(H118-I118=H118,"Market",IF(H118-I118&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H118" s="9">
@@ -6476,12 +6732,14 @@
       <c r="I118" s="9">
         <v>33</v>
       </c>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="17"/>
-    </row>
-    <row r="119" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="17"/>
+    </row>
+    <row r="119" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49" t="s">
         <v>302</v>
       </c>
@@ -6501,7 +6759,7 @@
         <v>127</v>
       </c>
       <c r="G119" s="24" t="str">
-        <f>IF(H119-I119=H119,"Market",IF(H119-I119&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H119" s="9">
@@ -6510,12 +6768,14 @@
       <c r="I119" s="9">
         <v>32</v>
       </c>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="17"/>
-    </row>
-    <row r="120" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="17"/>
+    </row>
+    <row r="120" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>185</v>
       </c>
@@ -6535,7 +6795,7 @@
         <v>127</v>
       </c>
       <c r="G120" s="2" t="str">
-        <f>IF(H120-I120=H120,"Market",IF(H120-I120&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H120" s="9">
@@ -6544,12 +6804,14 @@
       <c r="I120" s="9">
         <v>40</v>
       </c>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="17"/>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="17"/>
+    </row>
+    <row r="121" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="24" t="s">
         <v>151</v>
       </c>
@@ -6569,7 +6831,7 @@
         <v>127</v>
       </c>
       <c r="G121" s="2" t="str">
-        <f>IF(H121-I121=H121,"Market",IF(H121-I121&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Affordable</v>
       </c>
       <c r="H121" s="24">
@@ -6578,12 +6840,14 @@
       <c r="I121" s="9">
         <v>141</v>
       </c>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="17"/>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="17"/>
+    </row>
+    <row r="122" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>520</v>
       </c>
@@ -6603,17 +6867,19 @@
         <v>127</v>
       </c>
       <c r="G122" s="2" t="str">
-        <f>IF(H122-I122=H122,"Market",IF(H122-I122&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="2"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="17"/>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="29"/>
+      <c r="O122" s="17"/>
+    </row>
+    <row r="123" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
         <v>553</v>
       </c>
@@ -6633,17 +6899,19 @@
         <v>127</v>
       </c>
       <c r="G123" s="24" t="str">
-        <f>IF(H123-I123=H123,"Market",IF(H123-I123&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="29"/>
-      <c r="M123" s="17"/>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="17"/>
+    </row>
+    <row r="124" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>83</v>
       </c>
@@ -6663,7 +6931,7 @@
         <v>14</v>
       </c>
       <c r="G124" s="2" t="str">
-        <f>IF(H124-I124=H124,"Market",IF(H124-I124&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H124" s="9">
@@ -6672,14 +6940,16 @@
       <c r="I124" s="9">
         <v>79</v>
       </c>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3">
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3">
         <v>380000</v>
       </c>
-      <c r="L124" s="42"/>
-      <c r="M124" s="7"/>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N124" s="42"/>
+      <c r="O124" s="7"/>
+    </row>
+    <row r="125" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>42</v>
       </c>
@@ -6699,7 +6969,7 @@
         <v>14</v>
       </c>
       <c r="G125" s="24" t="str">
-        <f>IF(H125-I125=H125,"Market",IF(H125-I125&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H125" s="2">
@@ -6708,12 +6978,14 @@
       <c r="I125" s="2">
         <v>80</v>
       </c>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="42"/>
-      <c r="M125" s="7"/>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="42"/>
+      <c r="O125" s="7"/>
+    </row>
+    <row r="126" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="24" t="s">
         <v>327</v>
       </c>
@@ -6733,7 +7005,7 @@
         <v>127</v>
       </c>
       <c r="G126" s="2" t="str">
-        <f>IF(H126-I126=H126,"Market",IF(H126-I126&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H126" s="24">
@@ -6742,12 +7014,14 @@
       <c r="I126" s="9">
         <v>86</v>
       </c>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="29"/>
-      <c r="M126" s="17"/>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="17"/>
+    </row>
+    <row r="127" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>105</v>
       </c>
@@ -6767,7 +7041,7 @@
         <v>14</v>
       </c>
       <c r="G127" s="2" t="str">
-        <f>IF(H127-I127=H127,"Market",IF(H127-I127&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H127" s="2">
@@ -6776,12 +7050,14 @@
       <c r="I127" s="2">
         <v>0</v>
       </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="42"/>
-      <c r="M127" s="7"/>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="7"/>
+    </row>
+    <row r="128" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>105</v>
       </c>
@@ -6801,7 +7077,7 @@
         <v>14</v>
       </c>
       <c r="G128" s="2" t="str">
-        <f>IF(H128-I128=H128,"Market",IF(H128-I128&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Market</v>
       </c>
       <c r="H128" s="9">
@@ -6810,12 +7086,14 @@
       <c r="I128" s="9">
         <v>0</v>
       </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="42"/>
-      <c r="M128" s="7"/>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="42"/>
+      <c r="O128" s="7"/>
+    </row>
+    <row r="129" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>45</v>
       </c>
@@ -6835,7 +7113,7 @@
         <v>14</v>
       </c>
       <c r="G129" s="2" t="str">
-        <f>IF(H129-I129=H129,"Market",IF(H129-I129&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="1"/>
         <v>Mixed</v>
       </c>
       <c r="H129" s="9">
@@ -6844,12 +7122,14 @@
       <c r="I129" s="9">
         <v>98</v>
       </c>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="42"/>
-      <c r="M129" s="7"/>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="42"/>
+      <c r="O129" s="7"/>
+    </row>
+    <row r="130" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>45</v>
       </c>
@@ -6869,7 +7149,7 @@
         <v>14</v>
       </c>
       <c r="G130" s="24" t="str">
-        <f>IF(H130-I130=H130,"Market",IF(H130-I130&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" ref="G130:G193" si="2">IF(H130-I130=H130,"Market",IF(H130-I130&gt;0,"Mixed","Affordable"))</f>
         <v>Mixed</v>
       </c>
       <c r="H130" s="2">
@@ -6878,12 +7158,14 @@
       <c r="I130" s="2">
         <v>97</v>
       </c>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="19"/>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="19"/>
+    </row>
+    <row r="131" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>181</v>
       </c>
@@ -6903,19 +7185,21 @@
         <v>127</v>
       </c>
       <c r="G131" s="2" t="str">
-        <f>IF(H131-I131=H131,"Market",IF(H131-I131&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H131" s="9">
         <v>330</v>
       </c>
       <c r="I131" s="9"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="42"/>
-      <c r="M131" s="7"/>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="42"/>
+      <c r="O131" s="7"/>
+    </row>
+    <row r="132" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>108</v>
       </c>
@@ -6935,7 +7219,7 @@
         <v>14</v>
       </c>
       <c r="G132" s="24" t="str">
-        <f>IF(H132-I132=H132,"Market",IF(H132-I132&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H132" s="2">
@@ -6944,12 +7228,14 @@
       <c r="I132" s="2">
         <v>111</v>
       </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="42"/>
-      <c r="M132" s="7"/>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="7"/>
+    </row>
+    <row r="133" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
         <v>471</v>
       </c>
@@ -6969,19 +7255,21 @@
         <v>127</v>
       </c>
       <c r="G133" s="2" t="str">
-        <f>IF(H133-I133=H133,"Market",IF(H133-I133&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="33">
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33">
         <v>1500000</v>
       </c>
-      <c r="L133" s="29"/>
-      <c r="M133" s="17"/>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N133" s="29"/>
+      <c r="O133" s="17"/>
+    </row>
+    <row r="134" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
         <v>196</v>
       </c>
@@ -7001,19 +7289,21 @@
         <v>127</v>
       </c>
       <c r="G134" s="2" t="str">
-        <f>IF(H134-I134=H134,"Market",IF(H134-I134&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H134" s="9">
         <v>25</v>
       </c>
       <c r="I134" s="9"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="17"/>
-      <c r="L134" s="29"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="17"/>
       <c r="M134" s="17"/>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N134" s="29"/>
+      <c r="O134" s="17"/>
+    </row>
+    <row r="135" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
         <v>194</v>
       </c>
@@ -7033,19 +7323,21 @@
         <v>127</v>
       </c>
       <c r="G135" s="2" t="str">
-        <f>IF(H135-I135=H135,"Market",IF(H135-I135&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H135" s="24">
         <v>23</v>
       </c>
       <c r="I135" s="9"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="34"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="17"/>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="34"/>
+      <c r="M135" s="34"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="17"/>
+    </row>
+    <row r="136" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="24" t="s">
         <v>409</v>
       </c>
@@ -7065,19 +7357,21 @@
         <v>127</v>
       </c>
       <c r="G136" s="24" t="str">
-        <f>IF(H136-I136=H136,"Market",IF(H136-I136&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H136" s="9">
         <v>96</v>
       </c>
       <c r="I136" s="9"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="29"/>
-      <c r="M136" s="17"/>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="17"/>
+    </row>
+    <row r="137" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>587</v>
       </c>
@@ -7097,7 +7391,7 @@
         <v>127</v>
       </c>
       <c r="G137" s="2" t="str">
-        <f>IF(H137-I137=H137,"Market",IF(H137-I137&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H137" s="9">
@@ -7106,12 +7400,14 @@
       <c r="I137" s="9">
         <v>201</v>
       </c>
-      <c r="J137" s="34"/>
-      <c r="K137" s="34"/>
-      <c r="L137" s="29"/>
-      <c r="M137" s="17"/>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="34"/>
+      <c r="M137" s="34"/>
+      <c r="N137" s="29"/>
+      <c r="O137" s="17"/>
+    </row>
+    <row r="138" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>390</v>
       </c>
@@ -7131,7 +7427,7 @@
         <v>127</v>
       </c>
       <c r="G138" s="24" t="str">
-        <f>IF(H138-I138=H138,"Market",IF(H138-I138&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H138" s="9">
@@ -7140,12 +7436,14 @@
       <c r="I138" s="9">
         <v>36</v>
       </c>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="29"/>
-      <c r="M138" s="17"/>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="17"/>
+    </row>
+    <row r="139" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>369</v>
       </c>
@@ -7165,7 +7463,7 @@
         <v>127</v>
       </c>
       <c r="G139" s="2" t="str">
-        <f>IF(H139-I139=H139,"Market",IF(H139-I139&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H139" s="2">
@@ -7174,14 +7472,16 @@
       <c r="I139" s="2">
         <v>0</v>
       </c>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15">
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15">
         <v>390000</v>
       </c>
-      <c r="L139" s="29"/>
-      <c r="M139" s="17"/>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N139" s="29"/>
+      <c r="O139" s="17"/>
+    </row>
+    <row r="140" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
         <v>282</v>
       </c>
@@ -7201,17 +7501,19 @@
         <v>127</v>
       </c>
       <c r="G140" s="24" t="str">
-        <f>IF(H140-I140=H140,"Market",IF(H140-I140&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="29"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="17"/>
       <c r="M140" s="17"/>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N140" s="29"/>
+      <c r="O140" s="17"/>
+    </row>
+    <row r="141" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
         <v>532</v>
       </c>
@@ -7231,7 +7533,7 @@
         <v>127</v>
       </c>
       <c r="G141" s="24" t="str">
-        <f>IF(H141-I141=H141,"Market",IF(H141-I141&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H141" s="9">
@@ -7240,12 +7542,14 @@
       <c r="I141" s="9">
         <v>224</v>
       </c>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="29"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="17"/>
       <c r="M141" s="17"/>
-    </row>
-    <row r="142" spans="1:13" ht="23.25" thickBot="1">
+      <c r="N141" s="29"/>
+      <c r="O141" s="17"/>
+    </row>
+    <row r="142" spans="1:15" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
         <v>364</v>
       </c>
@@ -7265,19 +7569,21 @@
         <v>127</v>
       </c>
       <c r="G142" s="2" t="str">
-        <f>IF(H142-I142=H142,"Market",IF(H142-I142&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H142" s="9">
         <v>16</v>
       </c>
       <c r="I142" s="9"/>
-      <c r="J142" s="33"/>
-      <c r="K142" s="33"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="17"/>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="33"/>
+      <c r="M142" s="33"/>
+      <c r="N142" s="29"/>
+      <c r="O142" s="17"/>
+    </row>
+    <row r="143" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>590</v>
       </c>
@@ -7295,7 +7601,7 @@
         <v>127</v>
       </c>
       <c r="G143" s="24" t="str">
-        <f>IF(H143-I143=H143,"Market",IF(H143-I143&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H143" s="2">
@@ -7304,12 +7610,14 @@
       <c r="I143" s="2">
         <v>112</v>
       </c>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="17"/>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="29"/>
+      <c r="O143" s="17"/>
+    </row>
+    <row r="144" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>48</v>
       </c>
@@ -7329,19 +7637,21 @@
         <v>14</v>
       </c>
       <c r="G144" s="2" t="str">
-        <f>IF(H144-I144=H144,"Market",IF(H144-I144&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H144" s="2">
         <v>121</v>
       </c>
       <c r="I144" s="2"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="40"/>
-      <c r="M144" s="19"/>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="40"/>
+      <c r="O144" s="19"/>
+    </row>
+    <row r="145" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
         <v>437</v>
       </c>
@@ -7361,7 +7671,7 @@
         <v>127</v>
       </c>
       <c r="G145" s="2" t="str">
-        <f>IF(H145-I145=H145,"Market",IF(H145-I145&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H145" s="9">
@@ -7370,14 +7680,16 @@
       <c r="I145" s="9">
         <v>32</v>
       </c>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15">
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15">
         <v>300000</v>
       </c>
-      <c r="L145" s="29"/>
-      <c r="M145" s="17"/>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N145" s="29"/>
+      <c r="O145" s="17"/>
+    </row>
+    <row r="146" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>510</v>
       </c>
@@ -7397,7 +7709,7 @@
         <v>127</v>
       </c>
       <c r="G146" s="2" t="str">
-        <f>IF(H146-I146=H146,"Market",IF(H146-I146&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H146" s="9">
@@ -7406,12 +7718,14 @@
       <c r="I146" s="9">
         <v>170</v>
       </c>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="17"/>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="17"/>
+    </row>
+    <row r="147" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
         <v>317</v>
       </c>
@@ -7431,17 +7745,19 @@
         <v>127</v>
       </c>
       <c r="G147" s="2" t="str">
-        <f>IF(H147-I147=H147,"Market",IF(H147-I147&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="33"/>
-      <c r="K147" s="33"/>
-      <c r="L147" s="29"/>
-      <c r="M147" s="17"/>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="33"/>
+      <c r="M147" s="33"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="17"/>
+    </row>
+    <row r="148" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>142</v>
       </c>
@@ -7461,7 +7777,7 @@
         <v>127</v>
       </c>
       <c r="G148" s="24" t="str">
-        <f>IF(H148-I148=H148,"Market",IF(H148-I148&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H148" s="9">
@@ -7470,12 +7786,14 @@
       <c r="I148" s="9">
         <v>40</v>
       </c>
-      <c r="J148" s="34"/>
-      <c r="K148" s="34"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="17"/>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="17"/>
+    </row>
+    <row r="149" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>51</v>
       </c>
@@ -7495,19 +7813,21 @@
         <v>14</v>
       </c>
       <c r="G149" s="24" t="str">
-        <f>IF(H149-I149=H149,"Market",IF(H149-I149&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H149" s="2">
         <v>87</v>
       </c>
       <c r="I149" s="2"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="42"/>
-      <c r="M149" s="7"/>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="42"/>
+      <c r="O149" s="7"/>
+    </row>
+    <row r="150" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
         <v>579</v>
       </c>
@@ -7527,19 +7847,21 @@
         <v>127</v>
       </c>
       <c r="G150" s="2" t="str">
-        <f>IF(H150-I150=H150,"Market",IF(H150-I150&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H150" s="24">
         <v>14</v>
       </c>
       <c r="I150" s="9"/>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="29"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="17"/>
       <c r="M150" s="17"/>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N150" s="29"/>
+      <c r="O150" s="17"/>
+    </row>
+    <row r="151" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
         <v>350</v>
       </c>
@@ -7559,19 +7881,21 @@
         <v>127</v>
       </c>
       <c r="G151" s="24" t="str">
-        <f>IF(H151-I151=H151,"Market",IF(H151-I151&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H151" s="9">
         <v>65</v>
       </c>
       <c r="I151" s="9"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="29"/>
-      <c r="M151" s="17"/>
-    </row>
-    <row r="152" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="29"/>
+      <c r="O151" s="17"/>
+    </row>
+    <row r="152" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
         <v>205</v>
       </c>
@@ -7591,17 +7915,19 @@
         <v>127</v>
       </c>
       <c r="G152" s="2" t="str">
-        <f>IF(H152-I152=H152,"Market",IF(H152-I152&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="34"/>
-      <c r="L152" s="29"/>
-      <c r="M152" s="17"/>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="34"/>
+      <c r="M152" s="34"/>
+      <c r="N152" s="29"/>
+      <c r="O152" s="17"/>
+    </row>
+    <row r="153" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
         <v>366</v>
       </c>
@@ -7621,7 +7947,7 @@
         <v>127</v>
       </c>
       <c r="G153" s="24" t="str">
-        <f>IF(H153-I153=H153,"Market",IF(H153-I153&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H153" s="9">
@@ -7630,12 +7956,14 @@
       <c r="I153" s="9">
         <v>125</v>
       </c>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="17"/>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="17"/>
+    </row>
+    <row r="154" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
         <v>508</v>
       </c>
@@ -7655,17 +7983,19 @@
         <v>127</v>
       </c>
       <c r="G154" s="24" t="str">
-        <f>IF(H154-I154=H154,"Market",IF(H154-I154&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="17"/>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="17"/>
+    </row>
+    <row r="155" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>211</v>
       </c>
@@ -7685,7 +8015,7 @@
         <v>127</v>
       </c>
       <c r="G155" s="24" t="str">
-        <f>IF(H155-I155=H155,"Market",IF(H155-I155&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H155" s="2">
@@ -7694,12 +8024,14 @@
       <c r="I155" s="2">
         <v>70</v>
       </c>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="17"/>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="17"/>
+    </row>
+    <row r="156" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>307</v>
       </c>
@@ -7719,7 +8051,7 @@
         <v>127</v>
       </c>
       <c r="G156" s="2" t="str">
-        <f>IF(H156-I156=H156,"Market",IF(H156-I156&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H156" s="9">
@@ -7728,12 +8060,14 @@
       <c r="I156" s="9">
         <v>0</v>
       </c>
-      <c r="J156" s="34"/>
-      <c r="K156" s="34"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="17"/>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="34"/>
+      <c r="M156" s="34"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="17"/>
+    </row>
+    <row r="157" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
         <v>421</v>
       </c>
@@ -7753,19 +8087,21 @@
         <v>127</v>
       </c>
       <c r="G157" s="24" t="str">
-        <f>IF(H157-I157=H157,"Market",IF(H157-I157&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H157" s="24">
         <v>49</v>
       </c>
       <c r="I157" s="9"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="17"/>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="29"/>
+      <c r="O157" s="17"/>
+    </row>
+    <row r="158" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="24" t="s">
         <v>426</v>
       </c>
@@ -7785,19 +8121,21 @@
         <v>127</v>
       </c>
       <c r="G158" s="2" t="str">
-        <f>IF(H158-I158=H158,"Market",IF(H158-I158&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H158" s="9">
         <v>30</v>
       </c>
       <c r="I158" s="9"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="17"/>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="29"/>
+      <c r="O158" s="17"/>
+    </row>
+    <row r="159" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="24" t="s">
         <v>493</v>
       </c>
@@ -7817,19 +8155,21 @@
         <v>127</v>
       </c>
       <c r="G159" s="24" t="str">
-        <f>IF(H159-I159=H159,"Market",IF(H159-I159&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H159" s="9">
         <v>41</v>
       </c>
       <c r="I159" s="9"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="17"/>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="29"/>
+      <c r="O159" s="17"/>
+    </row>
+    <row r="160" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="24" t="s">
         <v>481</v>
       </c>
@@ -7849,7 +8189,7 @@
         <v>127</v>
       </c>
       <c r="G160" s="2" t="str">
-        <f>IF(H160-I160=H160,"Market",IF(H160-I160&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H160" s="24">
@@ -7858,14 +8198,16 @@
       <c r="I160" s="9">
         <v>14</v>
       </c>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15">
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15">
         <v>521250</v>
       </c>
-      <c r="L160" s="29"/>
-      <c r="M160" s="17"/>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N160" s="29"/>
+      <c r="O160" s="17"/>
+    </row>
+    <row r="161" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="24" t="s">
         <v>229</v>
       </c>
@@ -7885,19 +8227,21 @@
         <v>127</v>
       </c>
       <c r="G161" s="24" t="str">
-        <f>IF(H161-I161=H161,"Market",IF(H161-I161&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H161" s="24">
         <v>62</v>
       </c>
       <c r="I161" s="9"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="17"/>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="17"/>
+    </row>
+    <row r="162" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
         <v>487</v>
       </c>
@@ -7917,7 +8261,7 @@
         <v>127</v>
       </c>
       <c r="G162" s="2" t="str">
-        <f>IF(H162-I162=H162,"Market",IF(H162-I162&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H162" s="9">
@@ -7926,12 +8270,14 @@
       <c r="I162" s="9">
         <v>11</v>
       </c>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="29"/>
-      <c r="M162" s="17"/>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="29"/>
+      <c r="O162" s="17"/>
+    </row>
+    <row r="163" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="24" t="s">
         <v>445</v>
       </c>
@@ -7951,7 +8297,7 @@
         <v>127</v>
       </c>
       <c r="G163" s="2" t="str">
-        <f>IF(H163-I163=H163,"Market",IF(H163-I163&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H163" s="9">
@@ -7960,12 +8306,14 @@
       <c r="I163" s="9">
         <v>70</v>
       </c>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="17"/>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="17"/>
+    </row>
+    <row r="164" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>373</v>
       </c>
@@ -7985,17 +8333,19 @@
         <v>127</v>
       </c>
       <c r="G164" s="24" t="str">
-        <f>IF(H164-I164=H164,"Market",IF(H164-I164&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="29"/>
-      <c r="M164" s="17"/>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="17"/>
+    </row>
+    <row r="165" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
         <v>506</v>
       </c>
@@ -8015,19 +8365,21 @@
         <v>127</v>
       </c>
       <c r="G165" s="24" t="str">
-        <f>IF(H165-I165=H165,"Market",IF(H165-I165&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H165" s="9">
         <v>98</v>
       </c>
       <c r="I165" s="9"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="29"/>
-      <c r="M165" s="17"/>
-    </row>
-    <row r="166" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="17"/>
+    </row>
+    <row r="166" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
         <v>600</v>
       </c>
@@ -8047,19 +8399,21 @@
         <v>14</v>
       </c>
       <c r="G166" s="2" t="str">
-        <f>IF(H166-I166=H166,"Market",IF(H166-I166&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H166" s="16">
         <v>19</v>
       </c>
       <c r="I166" s="16"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="42"/>
-      <c r="M166" s="7"/>
-    </row>
-    <row r="167" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J166" s="16"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="42"/>
+      <c r="O166" s="7"/>
+    </row>
+    <row r="167" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="s">
         <v>220</v>
       </c>
@@ -8079,19 +8433,21 @@
         <v>127</v>
       </c>
       <c r="G167" s="2" t="str">
-        <f>IF(H167-I167=H167,"Market",IF(H167-I167&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H167" s="9">
         <v>300</v>
       </c>
       <c r="I167" s="9"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="29"/>
-      <c r="M167" s="17"/>
-    </row>
-    <row r="168" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="29"/>
+      <c r="O167" s="17"/>
+    </row>
+    <row r="168" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>440</v>
       </c>
@@ -8111,7 +8467,7 @@
         <v>127</v>
       </c>
       <c r="G168" s="24" t="str">
-        <f>IF(H168-I168=H168,"Market",IF(H168-I168&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H168" s="2">
@@ -8120,12 +8476,14 @@
       <c r="I168" s="2">
         <v>0</v>
       </c>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="29"/>
-      <c r="M168" s="17"/>
-    </row>
-    <row r="169" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="17"/>
+    </row>
+    <row r="169" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="s">
         <v>483</v>
       </c>
@@ -8145,7 +8503,7 @@
         <v>127</v>
       </c>
       <c r="G169" s="2" t="str">
-        <f>IF(H169-I169=H169,"Market",IF(H169-I169&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H169" s="9">
@@ -8154,12 +8512,14 @@
       <c r="I169" s="9">
         <v>8</v>
       </c>
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="29"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="17"/>
       <c r="M169" s="17"/>
-    </row>
-    <row r="170" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N169" s="29"/>
+      <c r="O169" s="17"/>
+    </row>
+    <row r="170" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
         <v>543</v>
       </c>
@@ -8179,17 +8539,19 @@
         <v>127</v>
       </c>
       <c r="G170" s="24" t="str">
-        <f>IF(H170-I170=H170,"Market",IF(H170-I170&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="29"/>
-      <c r="M170" s="17"/>
-    </row>
-    <row r="171" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="17"/>
+    </row>
+    <row r="171" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="s">
         <v>430</v>
       </c>
@@ -8209,7 +8571,7 @@
         <v>127</v>
       </c>
       <c r="G171" s="2" t="str">
-        <f>IF(H171-I171=H171,"Market",IF(H171-I171&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H171" s="24">
@@ -8218,12 +8580,14 @@
       <c r="I171" s="9">
         <v>5</v>
       </c>
-      <c r="J171" s="34"/>
-      <c r="K171" s="34"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="17"/>
-    </row>
-    <row r="172" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="34"/>
+      <c r="M171" s="34"/>
+      <c r="N171" s="29"/>
+      <c r="O171" s="17"/>
+    </row>
+    <row r="172" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
         <v>255</v>
       </c>
@@ -8243,17 +8607,19 @@
         <v>127</v>
       </c>
       <c r="G172" s="2" t="str">
-        <f>IF(H172-I172=H172,"Market",IF(H172-I172&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="34"/>
-      <c r="L172" s="29"/>
-      <c r="M172" s="17"/>
-    </row>
-    <row r="173" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="34"/>
+      <c r="M172" s="34"/>
+      <c r="N172" s="29"/>
+      <c r="O172" s="17"/>
+    </row>
+    <row r="173" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="24" t="s">
         <v>297</v>
       </c>
@@ -8273,7 +8639,7 @@
         <v>127</v>
       </c>
       <c r="G173" s="2" t="str">
-        <f>IF(H173-I173=H173,"Market",IF(H173-I173&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H173" s="9">
@@ -8282,12 +8648,14 @@
       <c r="I173" s="9">
         <v>22</v>
       </c>
-      <c r="J173" s="17"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="29"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="17"/>
       <c r="M173" s="17"/>
-    </row>
-    <row r="174" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N173" s="29"/>
+      <c r="O173" s="17"/>
+    </row>
+    <row r="174" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="24" t="s">
         <v>518</v>
       </c>
@@ -8307,7 +8675,7 @@
         <v>127</v>
       </c>
       <c r="G174" s="2" t="str">
-        <f>IF(H174-I174=H174,"Market",IF(H174-I174&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H174" s="9">
@@ -8316,12 +8684,14 @@
       <c r="I174" s="9">
         <v>16</v>
       </c>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="29"/>
-      <c r="M174" s="17"/>
-    </row>
-    <row r="175" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="29"/>
+      <c r="O174" s="17"/>
+    </row>
+    <row r="175" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="24" t="s">
         <v>576</v>
       </c>
@@ -8341,19 +8711,21 @@
         <v>127</v>
       </c>
       <c r="G175" s="24" t="str">
-        <f>IF(H175-I175=H175,"Market",IF(H175-I175&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H175" s="9">
         <v>18</v>
       </c>
       <c r="I175" s="9"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="29"/>
-      <c r="M175" s="17"/>
-    </row>
-    <row r="176" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="29"/>
+      <c r="O175" s="17"/>
+    </row>
+    <row r="176" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="24" t="s">
         <v>568</v>
       </c>
@@ -8373,7 +8745,7 @@
         <v>127</v>
       </c>
       <c r="G176" s="2" t="str">
-        <f>IF(H176-I176=H176,"Market",IF(H176-I176&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H176" s="9">
@@ -8382,12 +8754,14 @@
       <c r="I176" s="9">
         <v>25</v>
       </c>
-      <c r="J176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="29"/>
-      <c r="M176" s="17"/>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="29"/>
+      <c r="O176" s="17"/>
+    </row>
+    <row r="177" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="24" t="s">
         <v>236</v>
       </c>
@@ -8407,19 +8781,21 @@
         <v>127</v>
       </c>
       <c r="G177" s="24" t="str">
-        <f>IF(H177-I177=H177,"Market",IF(H177-I177&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H177" s="9">
         <v>46</v>
       </c>
       <c r="I177" s="9"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="29"/>
-      <c r="M177" s="17"/>
-    </row>
-    <row r="178" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
+      <c r="N177" s="29"/>
+      <c r="O177" s="17"/>
+    </row>
+    <row r="178" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>56</v>
       </c>
@@ -8439,7 +8815,7 @@
         <v>14</v>
       </c>
       <c r="G178" s="2" t="str">
-        <f>IF(H178-I178=H178,"Market",IF(H178-I178&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H178" s="2">
@@ -8448,12 +8824,14 @@
       <c r="I178" s="2">
         <v>0</v>
       </c>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="41"/>
-      <c r="M178" s="13"/>
-    </row>
-    <row r="179" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="41"/>
+      <c r="O178" s="13"/>
+    </row>
+    <row r="179" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>287</v>
       </c>
@@ -8473,7 +8851,7 @@
         <v>127</v>
       </c>
       <c r="G179" s="2" t="str">
-        <f>IF(H179-I179=H179,"Market",IF(H179-I179&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H179" s="9">
@@ -8482,12 +8860,14 @@
       <c r="I179" s="9">
         <v>0</v>
       </c>
-      <c r="J179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="29"/>
-      <c r="M179" s="17"/>
-    </row>
-    <row r="180" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="29"/>
+      <c r="O179" s="17"/>
+    </row>
+    <row r="180" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="24" t="s">
         <v>485</v>
       </c>
@@ -8507,7 +8887,7 @@
         <v>127</v>
       </c>
       <c r="G180" s="24" t="str">
-        <f>IF(H180-I180=H180,"Market",IF(H180-I180&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H180" s="9">
@@ -8516,12 +8896,14 @@
       <c r="I180" s="9">
         <v>100</v>
       </c>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="29"/>
-      <c r="M180" s="17"/>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="29"/>
+      <c r="O180" s="17"/>
+    </row>
+    <row r="181" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>595</v>
       </c>
@@ -8541,7 +8923,7 @@
         <v>127</v>
       </c>
       <c r="G181" s="2" t="str">
-        <f>IF(H181-I181=H181,"Market",IF(H181-I181&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H181" s="2">
@@ -8550,14 +8932,16 @@
       <c r="I181" s="2">
         <v>66</v>
       </c>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15">
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15">
         <v>128000</v>
       </c>
-      <c r="L181" s="29"/>
-      <c r="M181" s="17"/>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N181" s="29"/>
+      <c r="O181" s="17"/>
+    </row>
+    <row r="182" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="24" t="s">
         <v>249</v>
       </c>
@@ -8577,7 +8961,7 @@
         <v>127</v>
       </c>
       <c r="G182" s="24" t="str">
-        <f>IF(H182-I182=H182,"Market",IF(H182-I182&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H182" s="9">
@@ -8586,12 +8970,14 @@
       <c r="I182" s="9">
         <v>95</v>
       </c>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="29"/>
-      <c r="M182" s="17"/>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="15"/>
+      <c r="N182" s="29"/>
+      <c r="O182" s="17"/>
+    </row>
+    <row r="183" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>114</v>
       </c>
@@ -8611,7 +8997,7 @@
         <v>14</v>
       </c>
       <c r="G183" s="24" t="str">
-        <f>IF(H183-I183=H183,"Market",IF(H183-I183&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H183" s="2">
@@ -8620,12 +9006,14 @@
       <c r="I183" s="2">
         <v>11</v>
       </c>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="42"/>
-      <c r="M183" s="7"/>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="42"/>
+      <c r="O183" s="7"/>
+    </row>
+    <row r="184" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
         <v>313</v>
       </c>
@@ -8643,17 +9031,19 @@
         <v>127</v>
       </c>
       <c r="G184" s="2" t="str">
-        <f>IF(H184-I184=H184,"Market",IF(H184-I184&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="34"/>
-      <c r="L184" s="29"/>
-      <c r="M184" s="17"/>
-    </row>
-    <row r="185" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="34"/>
+      <c r="M184" s="34"/>
+      <c r="N184" s="29"/>
+      <c r="O184" s="17"/>
+    </row>
+    <row r="185" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="24" t="s">
         <v>90</v>
       </c>
@@ -8673,7 +9063,7 @@
         <v>14</v>
       </c>
       <c r="G185" s="2" t="str">
-        <f>IF(H185-I185=H185,"Market",IF(H185-I185&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H185" s="9">
@@ -8682,12 +9072,14 @@
       <c r="I185" s="9">
         <v>196</v>
       </c>
-      <c r="J185" s="34"/>
-      <c r="K185" s="34"/>
-      <c r="L185" s="29"/>
-      <c r="M185" s="17"/>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
+      <c r="L185" s="34"/>
+      <c r="M185" s="34"/>
+      <c r="N185" s="29"/>
+      <c r="O185" s="17"/>
+    </row>
+    <row r="186" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="24" t="s">
         <v>582</v>
       </c>
@@ -8707,17 +9099,19 @@
         <v>127</v>
       </c>
       <c r="G186" s="2" t="str">
-        <f>IF(H186-I186=H186,"Market",IF(H186-I186&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="34"/>
-      <c r="L186" s="29"/>
-      <c r="M186" s="17"/>
-    </row>
-    <row r="187" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="34"/>
+      <c r="M186" s="34"/>
+      <c r="N186" s="29"/>
+      <c r="O186" s="17"/>
+    </row>
+    <row r="187" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="56" t="s">
         <v>111</v>
       </c>
@@ -8737,7 +9131,7 @@
         <v>14</v>
       </c>
       <c r="G187" s="60" t="str">
-        <f>IF(H187-I187=H187,"Market",IF(H187-I187&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H187" s="57">
@@ -8746,12 +9140,14 @@
       <c r="I187" s="57">
         <v>0</v>
       </c>
-      <c r="J187" s="59"/>
-      <c r="K187" s="59"/>
-      <c r="L187" s="61"/>
-      <c r="M187" s="62"/>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="J187" s="57"/>
+      <c r="K187" s="57"/>
+      <c r="L187" s="59"/>
+      <c r="M187" s="59"/>
+      <c r="N187" s="61"/>
+      <c r="O187" s="62"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="70" t="s">
         <v>20</v>
       </c>
@@ -8771,7 +9167,7 @@
         <v>14</v>
       </c>
       <c r="G188" s="72" t="str">
-        <f>IF(H188-I188=H188,"Market",IF(H188-I188&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H188" s="72">
@@ -8780,12 +9176,14 @@
       <c r="I188" s="72">
         <v>0</v>
       </c>
-      <c r="J188" s="73"/>
-      <c r="K188" s="73"/>
-      <c r="L188" s="74"/>
-      <c r="M188" s="75"/>
-    </row>
-    <row r="189" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J188" s="72"/>
+      <c r="K188" s="72"/>
+      <c r="L188" s="73"/>
+      <c r="M188" s="73"/>
+      <c r="N188" s="74"/>
+      <c r="O188" s="75"/>
+    </row>
+    <row r="189" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="63" t="s">
         <v>571</v>
       </c>
@@ -8805,17 +9203,19 @@
         <v>127</v>
       </c>
       <c r="G189" s="63" t="str">
-        <f>IF(H189-I189=H189,"Market",IF(H189-I189&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H189" s="63"/>
       <c r="I189" s="66"/>
-      <c r="J189" s="67"/>
-      <c r="K189" s="67"/>
-      <c r="L189" s="68"/>
-      <c r="M189" s="69"/>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J189" s="66"/>
+      <c r="K189" s="66"/>
+      <c r="L189" s="67"/>
+      <c r="M189" s="67"/>
+      <c r="N189" s="68"/>
+      <c r="O189" s="69"/>
+    </row>
+    <row r="190" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="24" t="s">
         <v>247</v>
       </c>
@@ -8835,19 +9235,21 @@
         <v>127</v>
       </c>
       <c r="G190" s="2" t="str">
-        <f>IF(H190-I190=H190,"Market",IF(H190-I190&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H190" s="9">
         <v>174</v>
       </c>
       <c r="I190" s="9"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="15"/>
-      <c r="L190" s="29"/>
-      <c r="M190" s="17"/>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="15"/>
+      <c r="M190" s="15"/>
+      <c r="N190" s="29"/>
+      <c r="O190" s="17"/>
+    </row>
+    <row r="191" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="24" t="s">
         <v>563</v>
       </c>
@@ -8867,7 +9269,7 @@
         <v>127</v>
       </c>
       <c r="G191" s="2" t="str">
-        <f>IF(H191-I191=H191,"Market",IF(H191-I191&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Mixed</v>
       </c>
       <c r="H191" s="9">
@@ -8877,12 +9279,14 @@
         <f>30</f>
         <v>30</v>
       </c>
-      <c r="J191" s="15"/>
-      <c r="K191" s="15"/>
-      <c r="L191" s="29"/>
-      <c r="M191" s="17"/>
-    </row>
-    <row r="192" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="29"/>
+      <c r="O191" s="17"/>
+    </row>
+    <row r="192" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
         <v>592</v>
       </c>
@@ -8902,19 +9306,21 @@
         <v>127</v>
       </c>
       <c r="G192" s="52" t="str">
-        <f>IF(H192-I192=H192,"Market",IF(H192-I192&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Market</v>
       </c>
       <c r="H192" s="23">
         <v>268</v>
       </c>
       <c r="I192" s="23"/>
-      <c r="J192" s="77"/>
-      <c r="K192" s="77"/>
-      <c r="L192" s="78"/>
-      <c r="M192" s="79"/>
-    </row>
-    <row r="193" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J192" s="23"/>
+      <c r="K192" s="23"/>
+      <c r="L192" s="77"/>
+      <c r="M192" s="77"/>
+      <c r="N192" s="78"/>
+      <c r="O192" s="79"/>
+    </row>
+    <row r="193" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="24" t="s">
         <v>467</v>
       </c>
@@ -8934,7 +9340,7 @@
         <v>127</v>
       </c>
       <c r="G193" s="2" t="str">
-        <f>IF(H193-I193=H193,"Market",IF(H193-I193&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="2"/>
         <v>Affordable</v>
       </c>
       <c r="H193" s="9">
@@ -8943,12 +9349,14 @@
       <c r="I193" s="9">
         <v>37</v>
       </c>
-      <c r="J193" s="15"/>
-      <c r="K193" s="15"/>
-      <c r="L193" s="29"/>
-      <c r="M193" s="17"/>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15"/>
+      <c r="N193" s="29"/>
+      <c r="O193" s="17"/>
+    </row>
+    <row r="194" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="24" t="s">
         <v>457</v>
       </c>
@@ -8968,7 +9376,7 @@
         <v>127</v>
       </c>
       <c r="G194" s="2" t="str">
-        <f>IF(H194-I194=H194,"Market",IF(H194-I194&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" ref="G194:G257" si="3">IF(H194-I194=H194,"Market",IF(H194-I194&gt;0,"Mixed","Affordable"))</f>
         <v>Affordable</v>
       </c>
       <c r="H194" s="9">
@@ -8977,12 +9385,14 @@
       <c r="I194" s="9">
         <v>17</v>
       </c>
-      <c r="J194" s="15"/>
-      <c r="K194" s="15"/>
-      <c r="L194" s="29"/>
-      <c r="M194" s="17"/>
-    </row>
-    <row r="195" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="15"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="29"/>
+      <c r="O194" s="17"/>
+    </row>
+    <row r="195" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
         <v>59</v>
       </c>
@@ -9002,17 +9412,19 @@
         <v>14</v>
       </c>
       <c r="G195" s="52" t="str">
-        <f>IF(H195-I195=H195,"Market",IF(H195-I195&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H195" s="23"/>
       <c r="I195" s="23"/>
-      <c r="J195" s="81"/>
-      <c r="K195" s="81"/>
-      <c r="L195" s="82"/>
-      <c r="M195" s="83"/>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="81"/>
+      <c r="M195" s="81"/>
+      <c r="N195" s="82"/>
+      <c r="O195" s="83"/>
+    </row>
+    <row r="196" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>62</v>
       </c>
@@ -9032,7 +9444,7 @@
         <v>14</v>
       </c>
       <c r="G196" s="2" t="str">
-        <f>IF(H196-I196=H196,"Market",IF(H196-I196&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Mixed</v>
       </c>
       <c r="H196" s="2">
@@ -9041,12 +9453,14 @@
       <c r="I196" s="2">
         <v>36</v>
       </c>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="42"/>
-      <c r="M196" s="7"/>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="42"/>
+      <c r="O196" s="7"/>
+    </row>
+    <row r="197" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="24" t="s">
         <v>258</v>
       </c>
@@ -9066,19 +9480,21 @@
         <v>127</v>
       </c>
       <c r="G197" s="2" t="str">
-        <f>IF(H197-I197=H197,"Market",IF(H197-I197&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H197" s="9">
         <v>20</v>
       </c>
       <c r="I197" s="9"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="29"/>
-      <c r="M197" s="17"/>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="29"/>
+      <c r="O197" s="17"/>
+    </row>
+    <row r="198" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>523</v>
       </c>
@@ -9098,7 +9514,7 @@
         <v>127</v>
       </c>
       <c r="G198" s="24" t="str">
-        <f>IF(H198-I198=H198,"Market",IF(H198-I198&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H198" s="2">
@@ -9107,12 +9523,14 @@
       <c r="I198" s="2">
         <v>14</v>
       </c>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="29"/>
-      <c r="M198" s="17"/>
-    </row>
-    <row r="199" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="15"/>
+      <c r="M198" s="15"/>
+      <c r="N198" s="29"/>
+      <c r="O198" s="17"/>
+    </row>
+    <row r="199" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="24" t="s">
         <v>528</v>
       </c>
@@ -9132,7 +9550,7 @@
         <v>127</v>
       </c>
       <c r="G199" s="2" t="str">
-        <f>IF(H199-I199=H199,"Market",IF(H199-I199&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H199" s="9">
@@ -9141,14 +9559,16 @@
       <c r="I199" s="9">
         <v>72</v>
       </c>
-      <c r="J199" s="15"/>
-      <c r="K199" s="15">
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15">
         <v>500000</v>
       </c>
-      <c r="L199" s="29"/>
-      <c r="M199" s="17"/>
-    </row>
-    <row r="200" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N199" s="29"/>
+      <c r="O199" s="17"/>
+    </row>
+    <row r="200" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="24" t="s">
         <v>183</v>
       </c>
@@ -9168,17 +9588,19 @@
         <v>127</v>
       </c>
       <c r="G200" s="24" t="str">
-        <f>IF(H200-I200=H200,"Market",IF(H200-I200&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H200" s="9"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="29"/>
-      <c r="M200" s="17"/>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J200" s="27"/>
+      <c r="K200" s="27"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="29"/>
+      <c r="O200" s="17"/>
+    </row>
+    <row r="201" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="24" t="s">
         <v>331</v>
       </c>
@@ -9198,21 +9620,23 @@
         <v>127</v>
       </c>
       <c r="G201" s="24" t="str">
-        <f>IF(H201-I201=H201,"Market",IF(H201-I201&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H201" s="9">
         <v>24</v>
       </c>
       <c r="I201" s="9"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="15">
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15">
         <v>700000</v>
       </c>
-      <c r="L201" s="29"/>
-      <c r="M201" s="17"/>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N201" s="29"/>
+      <c r="O201" s="17"/>
+    </row>
+    <row r="202" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
         <v>334</v>
       </c>
@@ -9232,7 +9656,7 @@
         <v>127</v>
       </c>
       <c r="G202" s="2" t="str">
-        <f>IF(H202-I202=H202,"Market",IF(H202-I202&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H202" s="2">
@@ -9241,12 +9665,14 @@
       <c r="I202" s="16">
         <v>24</v>
       </c>
-      <c r="J202" s="15"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="29"/>
-      <c r="M202" s="17"/>
-    </row>
-    <row r="203" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J202" s="16"/>
+      <c r="K202" s="16"/>
+      <c r="L202" s="15"/>
+      <c r="M202" s="15"/>
+      <c r="N202" s="29"/>
+      <c r="O202" s="17"/>
+    </row>
+    <row r="203" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="24" t="s">
         <v>499</v>
       </c>
@@ -9266,7 +9692,7 @@
         <v>127</v>
       </c>
       <c r="G203" s="2" t="str">
-        <f>IF(H203-I203=H203,"Market",IF(H203-I203&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H203" s="9">
@@ -9275,12 +9701,14 @@
       <c r="I203" s="9">
         <v>92</v>
       </c>
-      <c r="J203" s="34"/>
-      <c r="K203" s="34"/>
-      <c r="L203" s="29"/>
-      <c r="M203" s="17"/>
-    </row>
-    <row r="204" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="34"/>
+      <c r="M203" s="34"/>
+      <c r="N203" s="29"/>
+      <c r="O203" s="17"/>
+    </row>
+    <row r="204" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>612</v>
       </c>
@@ -9300,7 +9728,7 @@
         <v>127</v>
       </c>
       <c r="G204" s="2" t="str">
-        <f>IF(H204-I204=H204,"Market",IF(H204-I204&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H204" s="24">
@@ -9309,12 +9737,14 @@
       <c r="I204" s="9">
         <v>14</v>
       </c>
-      <c r="J204" s="15"/>
-      <c r="K204" s="15"/>
-      <c r="L204" s="29"/>
-      <c r="M204" s="17"/>
-    </row>
-    <row r="205" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
+      <c r="L204" s="15"/>
+      <c r="M204" s="15"/>
+      <c r="N204" s="29"/>
+      <c r="O204" s="17"/>
+    </row>
+    <row r="205" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="24" t="s">
         <v>191</v>
       </c>
@@ -9334,7 +9764,7 @@
         <v>127</v>
       </c>
       <c r="G205" s="24" t="str">
-        <f>IF(H205-I205=H205,"Market",IF(H205-I205&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H205" s="9">
@@ -9343,14 +9773,16 @@
       <c r="I205" s="9">
         <v>21</v>
       </c>
-      <c r="J205" s="15"/>
-      <c r="K205" s="15">
+      <c r="J205" s="9"/>
+      <c r="K205" s="9"/>
+      <c r="L205" s="15"/>
+      <c r="M205" s="15">
         <v>330000</v>
       </c>
-      <c r="L205" s="29"/>
-      <c r="M205" s="17"/>
-    </row>
-    <row r="206" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N205" s="29"/>
+      <c r="O205" s="17"/>
+    </row>
+    <row r="206" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="24" t="s">
         <v>462</v>
       </c>
@@ -9370,19 +9802,21 @@
         <v>127</v>
       </c>
       <c r="G206" s="2" t="str">
-        <f>IF(H206-I206=H206,"Market",IF(H206-I206&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H206" s="9">
         <v>184</v>
       </c>
       <c r="I206" s="9"/>
-      <c r="J206" s="15"/>
-      <c r="K206" s="15"/>
-      <c r="L206" s="29"/>
-      <c r="M206" s="17"/>
-    </row>
-    <row r="207" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="15"/>
+      <c r="N206" s="29"/>
+      <c r="O206" s="17"/>
+    </row>
+    <row r="207" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="24" t="s">
         <v>275</v>
       </c>
@@ -9402,7 +9836,7 @@
         <v>127</v>
       </c>
       <c r="G207" s="24" t="str">
-        <f>IF(H207-I207=H207,"Market",IF(H207-I207&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Mixed</v>
       </c>
       <c r="H207" s="9">
@@ -9411,12 +9845,14 @@
       <c r="I207" s="9">
         <v>32</v>
       </c>
-      <c r="J207" s="15"/>
-      <c r="K207" s="15"/>
-      <c r="L207" s="29"/>
-      <c r="M207" s="17"/>
-    </row>
-    <row r="208" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="15"/>
+      <c r="N207" s="29"/>
+      <c r="O207" s="17"/>
+    </row>
+    <row r="208" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>65</v>
       </c>
@@ -9436,19 +9872,21 @@
         <v>14</v>
       </c>
       <c r="G208" s="2" t="str">
-        <f>IF(H208-I208=H208,"Market",IF(H208-I208&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H208" s="2">
         <v>100</v>
       </c>
       <c r="I208" s="2"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="42"/>
-      <c r="M208" s="7"/>
-    </row>
-    <row r="209" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="42"/>
+      <c r="O208" s="7"/>
+    </row>
+    <row r="209" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>239</v>
       </c>
@@ -9468,7 +9906,7 @@
         <v>127</v>
       </c>
       <c r="G209" s="2" t="str">
-        <f>IF(H209-I209=H209,"Market",IF(H209-I209&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H209" s="2">
@@ -9477,14 +9915,16 @@
       <c r="I209" s="2">
         <v>0</v>
       </c>
-      <c r="J209" s="15"/>
-      <c r="K209" s="15">
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="15"/>
+      <c r="M209" s="15">
         <v>750000</v>
       </c>
-      <c r="L209" s="29"/>
-      <c r="M209" s="17"/>
-    </row>
-    <row r="210" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N209" s="29"/>
+      <c r="O209" s="17"/>
+    </row>
+    <row r="210" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>116</v>
       </c>
@@ -9504,7 +9944,7 @@
         <v>14</v>
       </c>
       <c r="G210" s="24" t="str">
-        <f>IF(H210-I210=H210,"Market",IF(H210-I210&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H210" s="2">
@@ -9513,12 +9953,14 @@
       <c r="I210" s="2">
         <v>0</v>
       </c>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="42"/>
-      <c r="M210" s="7"/>
-    </row>
-    <row r="211" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="42"/>
+      <c r="O210" s="7"/>
+    </row>
+    <row r="211" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="24" t="s">
         <v>347</v>
       </c>
@@ -9538,7 +9980,7 @@
         <v>127</v>
       </c>
       <c r="G211" s="2" t="str">
-        <f>IF(H211-I211=H211,"Market",IF(H211-I211&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H211" s="24">
@@ -9547,12 +9989,14 @@
       <c r="I211" s="9">
         <v>60</v>
       </c>
-      <c r="J211" s="15"/>
-      <c r="K211" s="15"/>
-      <c r="L211" s="29"/>
-      <c r="M211" s="17"/>
-    </row>
-    <row r="212" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="15"/>
+      <c r="M211" s="15"/>
+      <c r="N211" s="29"/>
+      <c r="O211" s="17"/>
+    </row>
+    <row r="212" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>208</v>
       </c>
@@ -9572,7 +10016,7 @@
         <v>127</v>
       </c>
       <c r="G212" s="24" t="str">
-        <f>IF(H212-I212=H212,"Market",IF(H212-I212&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Mixed</v>
       </c>
       <c r="H212" s="16">
@@ -9581,12 +10025,14 @@
       <c r="I212" s="16">
         <v>32</v>
       </c>
-      <c r="J212" s="34"/>
-      <c r="K212" s="34"/>
-      <c r="L212" s="29"/>
-      <c r="M212" s="17"/>
-    </row>
-    <row r="213" spans="1:13" ht="23.25" thickBot="1">
+      <c r="J212" s="16"/>
+      <c r="K212" s="16"/>
+      <c r="L212" s="34"/>
+      <c r="M212" s="34"/>
+      <c r="N212" s="29"/>
+      <c r="O212" s="17"/>
+    </row>
+    <row r="213" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="24" t="s">
         <v>208</v>
       </c>
@@ -9606,7 +10052,7 @@
         <v>127</v>
       </c>
       <c r="G213" s="2" t="str">
-        <f>IF(H213-I213=H213,"Market",IF(H213-I213&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H213" s="24">
@@ -9615,12 +10061,14 @@
       <c r="I213" s="9">
         <v>36</v>
       </c>
-      <c r="J213" s="15"/>
-      <c r="K213" s="15"/>
-      <c r="L213" s="29"/>
-      <c r="M213" s="17"/>
-    </row>
-    <row r="214" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="15"/>
+      <c r="M213" s="15"/>
+      <c r="N213" s="29"/>
+      <c r="O213" s="17"/>
+    </row>
+    <row r="214" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>597</v>
       </c>
@@ -9640,19 +10088,21 @@
         <v>127</v>
       </c>
       <c r="G214" s="24" t="str">
-        <f>IF(H214-I214=H214,"Market",IF(H214-I214&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H214" s="2">
         <v>14</v>
       </c>
       <c r="I214" s="2"/>
-      <c r="J214" s="15"/>
-      <c r="K214" s="15"/>
-      <c r="L214" s="29"/>
-      <c r="M214" s="17"/>
-    </row>
-    <row r="215" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="15"/>
+      <c r="M214" s="15"/>
+      <c r="N214" s="29"/>
+      <c r="O214" s="17"/>
+    </row>
+    <row r="215" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>153</v>
       </c>
@@ -9672,19 +10122,21 @@
         <v>127</v>
       </c>
       <c r="G215" s="2" t="str">
-        <f>IF(H215-I215=H215,"Market",IF(H215-I215&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H215" s="2">
         <v>105</v>
       </c>
       <c r="I215" s="2"/>
-      <c r="J215" s="15"/>
-      <c r="K215" s="15"/>
-      <c r="L215" s="29"/>
-      <c r="M215" s="17"/>
-    </row>
-    <row r="216" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="15"/>
+      <c r="M215" s="15"/>
+      <c r="N215" s="29"/>
+      <c r="O215" s="17"/>
+    </row>
+    <row r="216" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="24" t="s">
         <v>251</v>
       </c>
@@ -9704,17 +10156,19 @@
         <v>127</v>
       </c>
       <c r="G216" s="2" t="str">
-        <f>IF(H216-I216=H216,"Market",IF(H216-I216&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
-      <c r="J216" s="34"/>
-      <c r="K216" s="34"/>
-      <c r="L216" s="29"/>
-      <c r="M216" s="17"/>
-    </row>
-    <row r="217" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
+      <c r="L216" s="34"/>
+      <c r="M216" s="34"/>
+      <c r="N216" s="29"/>
+      <c r="O216" s="17"/>
+    </row>
+    <row r="217" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="24" t="s">
         <v>573</v>
       </c>
@@ -9734,19 +10188,21 @@
         <v>127</v>
       </c>
       <c r="G217" s="24" t="str">
-        <f>IF(H217-I217=H217,"Market",IF(H217-I217&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Market</v>
       </c>
       <c r="H217" s="24">
         <v>14</v>
       </c>
       <c r="I217" s="9"/>
-      <c r="J217" s="15"/>
-      <c r="K217" s="15"/>
-      <c r="L217" s="29"/>
-      <c r="M217" s="17"/>
-    </row>
-    <row r="218" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J217" s="9"/>
+      <c r="K217" s="9"/>
+      <c r="L217" s="15"/>
+      <c r="M217" s="15"/>
+      <c r="N217" s="29"/>
+      <c r="O217" s="17"/>
+    </row>
+    <row r="218" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="24" t="s">
         <v>304</v>
       </c>
@@ -9766,7 +10222,7 @@
         <v>127</v>
       </c>
       <c r="G218" s="2" t="str">
-        <f>IF(H218-I218=H218,"Market",IF(H218-I218&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Mixed</v>
       </c>
       <c r="H218" s="24">
@@ -9775,12 +10231,14 @@
       <c r="I218" s="9">
         <v>45</v>
       </c>
-      <c r="J218" s="15"/>
-      <c r="K218" s="15"/>
-      <c r="L218" s="29"/>
-      <c r="M218" s="17"/>
-    </row>
-    <row r="219" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="15"/>
+      <c r="N218" s="29"/>
+      <c r="O218" s="17"/>
+    </row>
+    <row r="219" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>381</v>
       </c>
@@ -9800,7 +10258,7 @@
         <v>127</v>
       </c>
       <c r="G219" s="2" t="str">
-        <f>IF(H219-I219=H219,"Market",IF(H219-I219&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="3"/>
         <v>Affordable</v>
       </c>
       <c r="H219" s="2">
@@ -9809,10 +10267,33 @@
       <c r="I219" s="16">
         <v>48</v>
       </c>
-      <c r="J219" s="15"/>
-      <c r="K219" s="15"/>
-      <c r="L219" s="29"/>
-      <c r="M219" s="17"/>
+      <c r="J219" s="16"/>
+      <c r="K219" s="16"/>
+      <c r="L219" s="15"/>
+      <c r="M219" s="15"/>
+      <c r="N219" s="29"/>
+      <c r="O219" s="17"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A220" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="H220" s="20">
+        <f>SUM(H2:H219)</f>
+        <v>18196</v>
+      </c>
+      <c r="I220" s="20">
+        <f>SUM(I2:I219)</f>
+        <v>5993</v>
+      </c>
+      <c r="J220" s="20">
+        <f>SUMIF(G2:G219, "Market", H2:H219)</f>
+        <v>10328</v>
+      </c>
+      <c r="K220" s="20">
+        <f>SUMIF(G2:G219, "Mixed", H2:H219)</f>
+        <v>3588</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:D219">
@@ -9836,18 +10317,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="45.75" thickBot="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9888,8 +10369,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>359</v>
       </c>
@@ -9909,7 +10390,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="24" t="str">
-        <f>IF(H5-I5=H5,"Market",IF(H5-I5&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" ref="G5:G32" si="0">IF(H5-I5=H5,"Market",IF(H5-I5&gt;0,"Mixed","Affordable"))</f>
         <v>Market</v>
       </c>
       <c r="H5" s="32"/>
@@ -9921,7 +10402,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>359</v>
       </c>
@@ -9941,7 +10422,7 @@
         <v>127</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>IF(H6-I6=H6,"Market",IF(H6-I6&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H6" s="9"/>
@@ -9951,7 +10432,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>140</v>
       </c>
@@ -9971,7 +10452,7 @@
         <v>127</v>
       </c>
       <c r="G7" s="24" t="str">
-        <f>IF(H7-I7=H7,"Market",IF(H7-I7&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H7" s="9"/>
@@ -9981,7 +10462,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>140</v>
       </c>
@@ -10001,7 +10482,7 @@
         <v>127</v>
       </c>
       <c r="G8" s="24" t="str">
-        <f>IF(H8-I8=H8,"Market",IF(H8-I8&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H8" s="9"/>
@@ -10011,7 +10492,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
@@ -10031,7 +10512,7 @@
         <v>127</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>IF(H9-I9=H9,"Market",IF(H9-I9&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H9" s="9"/>
@@ -10041,7 +10522,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>537</v>
       </c>
@@ -10059,7 +10540,7 @@
         <v>127</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF(H10-I10=H10,"Market",IF(H10-I10&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H10" s="9"/>
@@ -10069,7 +10550,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>148</v>
       </c>
@@ -10089,7 +10570,7 @@
         <v>127</v>
       </c>
       <c r="G11" s="24" t="str">
-        <f>IF(H11-I11=H11,"Market",IF(H11-I11&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H11" s="9"/>
@@ -10099,7 +10580,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>387</v>
       </c>
@@ -10119,7 +10600,7 @@
         <v>127</v>
       </c>
       <c r="G12" s="24" t="str">
-        <f>IF(H12-I12=H12,"Market",IF(H12-I12&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H12" s="2"/>
@@ -10129,7 +10610,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>234</v>
       </c>
@@ -10147,7 +10628,7 @@
         <v>127</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>IF(H13-I13=H13,"Market",IF(H13-I13&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H13" s="24"/>
@@ -10157,7 +10638,7 @@
       <c r="L13" s="29"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>156</v>
       </c>
@@ -10177,7 +10658,7 @@
         <v>127</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>IF(H14-I14=H14,"Market",IF(H14-I14&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H14" s="9"/>
@@ -10189,7 +10670,7 @@
       <c r="L14" s="29"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>214</v>
       </c>
@@ -10209,7 +10690,7 @@
         <v>127</v>
       </c>
       <c r="G15" s="24" t="str">
-        <f>IF(H15-I15=H15,"Market",IF(H15-I15&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H15" s="9"/>
@@ -10219,7 +10700,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>277</v>
       </c>
@@ -10237,7 +10718,7 @@
         <v>127</v>
       </c>
       <c r="G16" s="24" t="str">
-        <f>IF(H16-I16=H16,"Market",IF(H16-I16&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H16" s="9"/>
@@ -10247,7 +10728,7 @@
       <c r="L16" s="29"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>140</v>
       </c>
@@ -10267,7 +10748,7 @@
         <v>127</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>IF(H17-I17=H17,"Market",IF(H17-I17&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H17" s="9"/>
@@ -10277,7 +10758,7 @@
       <c r="L17" s="29"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>156</v>
       </c>
@@ -10297,7 +10778,7 @@
         <v>127</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>IF(H18-I18=H18,"Market",IF(H18-I18&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H18" s="9"/>
@@ -10307,7 +10788,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>514</v>
       </c>
@@ -10327,7 +10808,7 @@
         <v>127</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>IF(H19-I19=H19,"Market",IF(H19-I19&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H19" s="9"/>
@@ -10337,7 +10818,7 @@
       <c r="L19" s="29"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>435</v>
       </c>
@@ -10357,7 +10838,7 @@
         <v>127</v>
       </c>
       <c r="G20" s="24" t="str">
-        <f>IF(H20-I20=H20,"Market",IF(H20-I20&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H20" s="9"/>
@@ -10367,7 +10848,7 @@
       <c r="L20" s="29"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>134</v>
       </c>
@@ -10385,7 +10866,7 @@
         <v>127</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>IF(H21-I21=H21,"Market",IF(H21-I21&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H21" s="9"/>
@@ -10395,7 +10876,7 @@
       <c r="L21" s="29"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>225</v>
       </c>
@@ -10413,7 +10894,7 @@
         <v>127</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>IF(H22-I22=H22,"Market",IF(H22-I22&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H22" s="9"/>
@@ -10423,7 +10904,7 @@
       <c r="L22" s="29"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>279</v>
       </c>
@@ -10443,7 +10924,7 @@
         <v>127</v>
       </c>
       <c r="G23" s="24" t="str">
-        <f>IF(H23-I23=H23,"Market",IF(H23-I23&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Affordable</v>
       </c>
       <c r="H23" s="16">
@@ -10457,7 +10938,7 @@
       <c r="L23" s="29"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="24" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>469</v>
       </c>
@@ -10477,7 +10958,7 @@
         <v>127</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>IF(H24-I24=H24,"Market",IF(H24-I24&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H24" s="9">
@@ -10489,7 +10970,7 @@
       <c r="L24" s="29"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>479</v>
       </c>
@@ -10509,7 +10990,7 @@
         <v>127</v>
       </c>
       <c r="G25" s="24" t="str">
-        <f>IF(H25-I25=H25,"Market",IF(H25-I25&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H25" s="9">
@@ -10521,7 +11002,7 @@
       <c r="L25" s="29"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>393</v>
       </c>
@@ -10541,7 +11022,7 @@
         <v>127</v>
       </c>
       <c r="G26" s="24" t="str">
-        <f>IF(H26-I26=H26,"Market",IF(H26-I26&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H26" s="9"/>
@@ -10551,7 +11032,7 @@
       <c r="L26" s="29"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="27" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>393</v>
       </c>
@@ -10571,7 +11052,7 @@
         <v>127</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IF(H27-I27=H27,"Market",IF(H27-I27&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H27" s="9"/>
@@ -10581,7 +11062,7 @@
       <c r="L27" s="29"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="28" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>419</v>
       </c>
@@ -10601,7 +11082,7 @@
         <v>127</v>
       </c>
       <c r="G28" s="24" t="str">
-        <f>IF(H28-I28=H28,"Market",IF(H28-I28&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H28" s="9">
@@ -10613,7 +11094,7 @@
       <c r="L28" s="29"/>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>393</v>
       </c>
@@ -10633,7 +11114,7 @@
         <v>127</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>IF(H29-I29=H29,"Market",IF(H29-I29&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H29" s="9"/>
@@ -10643,7 +11124,7 @@
       <c r="L29" s="29"/>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="30" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>325</v>
       </c>
@@ -10663,7 +11144,7 @@
         <v>127</v>
       </c>
       <c r="G30" s="24" t="str">
-        <f>IF(H30-I30=H30,"Market",IF(H30-I30&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Mixed</v>
       </c>
       <c r="H30" s="9">
@@ -10677,7 +11158,7 @@
       <c r="L30" s="29"/>
       <c r="M30" s="17"/>
     </row>
-    <row r="31" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="31" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>555</v>
       </c>
@@ -10697,7 +11178,7 @@
         <v>127</v>
       </c>
       <c r="G31" s="24" t="str">
-        <f>IF(H31-I31=H31,"Market",IF(H31-I31&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H31" s="9"/>
@@ -10707,7 +11188,7 @@
       <c r="L31" s="29"/>
       <c r="M31" s="17"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="32" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>550</v>
       </c>
@@ -10727,7 +11208,7 @@
         <v>127</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>IF(H32-I32=H32,"Market",IF(H32-I32&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" si="0"/>
         <v>Market</v>
       </c>
       <c r="H32" s="9"/>

--- a/Data/Multifamily.xlsx
+++ b/Data/Multifamily.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taohe/Documents/GitHub/SLC-Housing-Dashboard/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taohe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Multi-Family Listings" sheetId="1" r:id="rId1"/>
-    <sheet name="Research" sheetId="4" r:id="rId2"/>
+    <sheet name="ASC-Housing-2016" sheetId="5" r:id="rId2"/>
+    <sheet name="Research" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Multi-Family Listings'!$D$1:$D$219</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="639">
   <si>
     <t>Project Name</t>
   </si>
@@ -1879,10 +1880,79 @@
     <t>total</t>
   </si>
   <si>
-    <t>Market Units</t>
-  </si>
-  <si>
-    <t>Mixed Units</t>
+    <t>UNITS IN STRUCTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total housing units</t>
+  </si>
+  <si>
+    <t>83,759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1-unit, detached</t>
+  </si>
+  <si>
+    <t>45.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1-unit, attached</t>
+  </si>
+  <si>
+    <t>3.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2 units</t>
+  </si>
+  <si>
+    <t>7.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3 or 4 units</t>
+  </si>
+  <si>
+    <t>7.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5 to 9 units</t>
+  </si>
+  <si>
+    <t>5.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      10 to 19 units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      20 or more units</t>
+  </si>
+  <si>
+    <t>22.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Mobile home</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Boat, RV, van, etc.</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>single family toal</t>
+  </si>
+  <si>
+    <t>multifamily total</t>
+  </si>
+  <si>
+    <t>affordable percentage</t>
+  </si>
+  <si>
+    <t>Multifamily Units Total</t>
+  </si>
+  <si>
+    <t>Other Multifamily Units</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1963,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,8 +2018,13 @@
       <name val="BankGothic Lt BT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="SansSerif"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1980,8 +2055,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2069,12 +2150,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2328,10 +2462,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2609,11 +2772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P220"/>
+  <dimension ref="A1:P221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K221" sqref="K221"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J227" sqref="J227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2660,10 +2823,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>7</v>
@@ -9376,7 +9539,7 @@
         <v>127</v>
       </c>
       <c r="G194" s="2" t="str">
-        <f t="shared" ref="G194:G257" si="3">IF(H194-I194=H194,"Market",IF(H194-I194&gt;0,"Mixed","Affordable"))</f>
+        <f t="shared" ref="G194:G219" si="3">IF(H194-I194=H194,"Market",IF(H194-I194&gt;0,"Mixed","Affordable"))</f>
         <v>Affordable</v>
       </c>
       <c r="H194" s="9">
@@ -10278,21 +10441,26 @@
       <c r="A220" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="H220" s="20">
-        <f>SUM(H2:H219)</f>
-        <v>18196</v>
-      </c>
       <c r="I220" s="20">
         <f>SUM(I2:I219)</f>
         <v>5993</v>
       </c>
-      <c r="J220" s="20">
-        <f>SUMIF(G2:G219, "Market", H2:H219)</f>
-        <v>10328</v>
-      </c>
-      <c r="K220" s="20">
-        <f>SUMIF(G2:G219, "Mixed", H2:H219)</f>
-        <v>3588</v>
+      <c r="K220" s="93">
+        <f>'ASC-Housing-2016'!I10</f>
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A221" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="I221" s="94">
+        <f>ROUND(I220/K220, 2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J221" s="94">
+        <f>1-I221</f>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -10310,6 +10478,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="87" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="86"/>
+      <c r="H1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="91">
+        <v>83759</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="86" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="91">
+        <v>38157</v>
+      </c>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="86" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="91">
+        <v>2502</v>
+      </c>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="H4" s="92">
+        <f>SUM(D3:D4)</f>
+        <v>40659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>621</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="91">
+        <v>6312</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="91">
+        <v>6185</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="86" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="91">
+        <v>4347</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="91">
+        <v>6273</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="85" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="91">
+        <v>19004</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="86" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="85" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="90">
+        <v>515</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="86" t="s">
+        <v>631</v>
+      </c>
+      <c r="I10" s="92">
+        <f>SUM(D5:F10)</f>
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="85" t="s">
+        <v>632</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="90">
+        <v>464</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="86" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
